--- a/格式刷.xlsx
+++ b/格式刷.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\MainlandTrunksensitiveResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v_jinlqi\Desktop\Compare_266_MS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851D185D-0B69-4290-83A8-07646FA9D649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E2E4D-C020-43A4-A63D-CD908EFA913A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7000,7 +7000,7 @@
   <dimension ref="A1:F644"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -7012,7 +7012,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>1497</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>500015</v>
       </c>
@@ -7048,11 +7048,11 @@
       <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>500061</v>
       </c>
@@ -7068,11 +7068,11 @@
       <c r="E3" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>500104</v>
       </c>
@@ -7088,11 +7088,11 @@
       <c r="E4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>500105</v>
       </c>
@@ -7108,11 +7108,11 @@
       <c r="E5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>500106</v>
       </c>
@@ -7128,11 +7128,11 @@
       <c r="E6" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>500107</v>
       </c>
@@ -7148,11 +7148,11 @@
       <c r="E7" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="17">
         <v>500112</v>
       </c>
@@ -7168,11 +7168,11 @@
       <c r="E8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="17">
         <v>500113</v>
       </c>
@@ -7188,11 +7188,11 @@
       <c r="E9" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>500114</v>
       </c>
@@ -7208,11 +7208,11 @@
       <c r="E10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="17">
         <v>500115</v>
       </c>
@@ -7228,11 +7228,11 @@
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A12" s="17">
         <v>500140</v>
       </c>
@@ -7248,11 +7248,11 @@
       <c r="E12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="17">
         <v>500141</v>
       </c>
@@ -7268,11 +7268,11 @@
       <c r="E13" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A14" s="17">
         <v>500142</v>
       </c>
@@ -7288,11 +7288,11 @@
       <c r="E14" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A15" s="17">
         <v>500143</v>
       </c>
@@ -7308,11 +7308,11 @@
       <c r="E15" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A16" s="17">
         <v>500160</v>
       </c>
@@ -7328,11 +7328,11 @@
       <c r="E16" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A17" s="17">
         <v>500161</v>
       </c>
@@ -7348,11 +7348,11 @@
       <c r="E17" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A18" s="17">
         <v>500162</v>
       </c>
@@ -7368,11 +7368,11 @@
       <c r="E18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A19" s="17">
         <v>500163</v>
       </c>
@@ -7388,11 +7388,11 @@
       <c r="E19" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A20" s="17">
         <v>500164</v>
       </c>
@@ -7408,11 +7408,11 @@
       <c r="E20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A21" s="17">
         <v>500165</v>
       </c>
@@ -7428,11 +7428,11 @@
       <c r="E21" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A22" s="17">
         <v>500166</v>
       </c>
@@ -7448,11 +7448,11 @@
       <c r="E22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A23" s="17">
         <v>500167</v>
       </c>
@@ -7468,11 +7468,11 @@
       <c r="E23" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A24" s="17">
         <v>500180</v>
       </c>
@@ -7488,11 +7488,11 @@
       <c r="E24" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A25" s="17">
         <v>500181</v>
       </c>
@@ -7508,11 +7508,11 @@
       <c r="E25" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A26" s="17">
         <v>500182</v>
       </c>
@@ -7528,11 +7528,11 @@
       <c r="E26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A27" s="17">
         <v>500183</v>
       </c>
@@ -7548,11 +7548,11 @@
       <c r="E27" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A28" s="17">
         <v>500204</v>
       </c>
@@ -7568,11 +7568,11 @@
       <c r="E28" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A29" s="17">
         <v>500205</v>
       </c>
@@ -7588,11 +7588,11 @@
       <c r="E29" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A30" s="17">
         <v>500206</v>
       </c>
@@ -7608,11 +7608,11 @@
       <c r="E30" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A31" s="17">
         <v>500207</v>
       </c>
@@ -7628,11 +7628,11 @@
       <c r="E31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A32" s="17">
         <v>500222</v>
       </c>
@@ -7648,11 +7648,11 @@
       <c r="E32" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A33" s="17">
         <v>500229</v>
       </c>
@@ -7668,11 +7668,11 @@
       <c r="E33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A34" s="17">
         <v>500317</v>
       </c>
@@ -7688,11 +7688,11 @@
       <c r="E34" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A35" s="17">
         <v>500404</v>
       </c>
@@ -7708,11 +7708,11 @@
       <c r="E35" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A36" s="17">
         <v>500443</v>
       </c>
@@ -7728,11 +7728,11 @@
       <c r="E36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A37" s="17">
         <v>500485</v>
       </c>
@@ -7748,11 +7748,11 @@
       <c r="E37" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A38" s="17">
         <v>500502</v>
       </c>
@@ -7768,11 +7768,11 @@
       <c r="E38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A39" s="17">
         <v>500504</v>
       </c>
@@ -7788,11 +7788,11 @@
       <c r="E39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A40" s="17">
         <v>500505</v>
       </c>
@@ -7808,11 +7808,11 @@
       <c r="E40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A41" s="17">
         <v>500561</v>
       </c>
@@ -7828,11 +7828,11 @@
       <c r="E41" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A42" s="17">
         <v>500563</v>
       </c>
@@ -7848,11 +7848,11 @@
       <c r="E42" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A43" s="17">
         <v>500564</v>
       </c>
@@ -7868,11 +7868,11 @@
       <c r="E43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A44" s="17">
         <v>500656</v>
       </c>
@@ -7888,11 +7888,11 @@
       <c r="E44" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A45" s="17">
         <v>500675</v>
       </c>
@@ -7908,11 +7908,11 @@
       <c r="E45" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A46" s="17">
         <v>500681</v>
       </c>
@@ -7928,11 +7928,11 @@
       <c r="E46" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="17">
         <v>500815</v>
       </c>
@@ -7948,11 +7948,11 @@
       <c r="E47" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A48" s="17">
         <v>500853</v>
       </c>
@@ -7968,11 +7968,11 @@
       <c r="E48" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A49" s="17">
         <v>500862</v>
       </c>
@@ -7988,11 +7988,11 @@
       <c r="E49" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="17">
         <v>500947</v>
       </c>
@@ -8008,11 +8008,11 @@
       <c r="E50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="17">
         <v>3</v>
       </c>
@@ -8026,11 +8026,11 @@
       <c r="E51" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="17">
         <v>4</v>
       </c>
@@ -8044,11 +8044,11 @@
       <c r="E52" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="17">
         <v>6</v>
       </c>
@@ -8062,11 +8062,11 @@
       <c r="E53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="17">
         <v>13</v>
       </c>
@@ -8080,11 +8080,11 @@
       <c r="E54" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A55" s="17">
         <v>17</v>
       </c>
@@ -8100,11 +8100,11 @@
       <c r="E55" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A56" s="17">
         <v>27</v>
       </c>
@@ -8120,11 +8120,11 @@
       <c r="E56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="2" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="17">
         <v>181</v>
       </c>
@@ -8138,11 +8138,11 @@
       <c r="E57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="17">
         <v>191</v>
       </c>
@@ -8156,11 +8156,11 @@
       <c r="E58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="17">
         <v>192</v>
       </c>
@@ -8174,11 +8174,11 @@
       <c r="E59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="17">
         <v>208</v>
       </c>
@@ -8192,11 +8192,11 @@
       <c r="E60" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="17">
         <v>215</v>
       </c>
@@ -8210,11 +8210,11 @@
       <c r="E61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="17">
         <v>216</v>
       </c>
@@ -8228,11 +8228,11 @@
       <c r="E62" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="17">
         <v>231</v>
       </c>
@@ -8246,11 +8246,11 @@
       <c r="E63" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="2" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="17">
         <v>232</v>
       </c>
@@ -8264,11 +8264,11 @@
       <c r="E64" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="17">
         <v>251</v>
       </c>
@@ -8282,11 +8282,11 @@
       <c r="E65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A66" s="17">
         <v>270</v>
       </c>
@@ -8300,11 +8300,11 @@
       <c r="E66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="17">
         <v>275</v>
       </c>
@@ -8318,11 +8318,11 @@
       <c r="E67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="17">
         <v>276</v>
       </c>
@@ -8336,11 +8336,11 @@
       <c r="E68" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="17">
         <v>277</v>
       </c>
@@ -8354,11 +8354,11 @@
       <c r="E69" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="17">
         <v>278</v>
       </c>
@@ -8372,11 +8372,11 @@
       <c r="E70" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="17">
         <v>286</v>
       </c>
@@ -8390,11 +8390,11 @@
       <c r="E71" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="17">
         <v>287</v>
       </c>
@@ -8408,11 +8408,11 @@
       <c r="E72" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="17">
         <v>291</v>
       </c>
@@ -8426,11 +8426,11 @@
       <c r="E73" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="17">
         <v>293</v>
       </c>
@@ -8444,11 +8444,11 @@
       <c r="E74" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="17">
         <v>298</v>
       </c>
@@ -8462,11 +8462,11 @@
       <c r="E75" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="17">
         <v>299</v>
       </c>
@@ -8480,11 +8480,11 @@
       <c r="E76" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="17">
         <v>301</v>
       </c>
@@ -8498,11 +8498,11 @@
       <c r="E77" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="17">
         <v>303</v>
       </c>
@@ -8516,11 +8516,11 @@
       <c r="E78" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A79" s="17">
         <v>305</v>
       </c>
@@ -8534,11 +8534,11 @@
       <c r="E79" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A80" s="17">
         <v>309</v>
       </c>
@@ -8552,11 +8552,11 @@
       <c r="E80" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="17">
         <v>312</v>
       </c>
@@ -8570,11 +8570,11 @@
       <c r="E81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="17">
         <v>313</v>
       </c>
@@ -8588,11 +8588,11 @@
       <c r="E82" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A83" s="17">
         <v>316</v>
       </c>
@@ -8606,11 +8606,11 @@
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="17">
         <v>320</v>
       </c>
@@ -8624,11 +8624,11 @@
       <c r="E84" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A85" s="17">
         <v>324</v>
       </c>
@@ -8642,11 +8642,11 @@
       <c r="E85" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F85" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="17">
         <v>329</v>
       </c>
@@ -8660,11 +8660,11 @@
       <c r="E86" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F86" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="17">
         <v>374</v>
       </c>
@@ -8678,11 +8678,11 @@
       <c r="E87" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F87" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A88" s="17">
         <v>403</v>
       </c>
@@ -8696,11 +8696,11 @@
       <c r="E88" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A89" s="17">
         <v>406</v>
       </c>
@@ -8714,11 +8714,11 @@
       <c r="E89" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F89" s="2" t="s">
         <v>1472</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="17">
         <v>410</v>
       </c>
@@ -8732,11 +8732,11 @@
       <c r="E90" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="17">
         <v>415</v>
       </c>
@@ -8750,11 +8750,11 @@
       <c r="E91" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="F91" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A92" s="17">
         <v>420</v>
       </c>
@@ -8768,11 +8768,11 @@
       <c r="E92" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="F92" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A93" s="17">
         <v>690</v>
       </c>
@@ -8788,11 +8788,11 @@
       <c r="E93" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="F93" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A94" s="17">
         <v>696</v>
       </c>
@@ -8808,11 +8808,11 @@
       <c r="E94" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="F94" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A95" s="17">
         <v>755</v>
       </c>
@@ -8828,11 +8828,11 @@
       <c r="E95" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F95" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="17">
         <v>764</v>
       </c>
@@ -8846,11 +8846,11 @@
       <c r="E96" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F96" s="2" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="17">
         <v>771</v>
       </c>
@@ -8864,11 +8864,11 @@
       <c r="E97" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="2" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="17">
         <v>784</v>
       </c>
@@ -8882,11 +8882,11 @@
       <c r="E98" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="F98" s="2" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="17">
         <v>792</v>
       </c>
@@ -8900,11 +8900,11 @@
       <c r="E99" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="F99" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="17">
         <v>878</v>
       </c>
@@ -8918,11 +8918,11 @@
       <c r="E100" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="F100" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="17">
         <v>910</v>
       </c>
@@ -8936,11 +8936,11 @@
       <c r="E101" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="F101" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="17">
         <v>916</v>
       </c>
@@ -8954,11 +8954,11 @@
       <c r="E102" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="F102" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="17">
         <v>972</v>
       </c>
@@ -8972,11 +8972,11 @@
       <c r="E103" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="F103" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="17">
         <v>979</v>
       </c>
@@ -8990,11 +8990,11 @@
       <c r="E104" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="F104" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A105" s="17">
         <v>980</v>
       </c>
@@ -9008,11 +9008,11 @@
       <c r="E105" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A106" s="17">
         <v>991</v>
       </c>
@@ -9026,11 +9026,11 @@
       <c r="E106" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="17">
         <v>1000</v>
       </c>
@@ -9044,11 +9044,11 @@
       <c r="E107" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="F107" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="17">
         <v>1004</v>
       </c>
@@ -9062,11 +9062,11 @@
       <c r="E108" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F108" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="17">
         <v>1015</v>
       </c>
@@ -9080,11 +9080,11 @@
       <c r="E109" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="F109" s="2" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="17">
         <v>1051</v>
       </c>
@@ -9098,11 +9098,11 @@
       <c r="E110" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="F110" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="17">
         <v>1069</v>
       </c>
@@ -9116,11 +9116,11 @@
       <c r="E111" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="F111" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="17">
         <v>1074</v>
       </c>
@@ -9134,11 +9134,11 @@
       <c r="E112" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="2" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="17">
         <v>1120</v>
       </c>
@@ -9152,11 +9152,11 @@
       <c r="E113" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A114" s="17">
         <v>1140</v>
       </c>
@@ -9172,11 +9172,11 @@
       <c r="E114" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F114" s="2" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A115" s="17">
         <v>1142</v>
       </c>
@@ -9192,11 +9192,11 @@
       <c r="E115" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="F115" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" ht="99" x14ac:dyDescent="0.15">
       <c r="A116" s="17">
         <v>1144</v>
       </c>
@@ -9212,11 +9212,11 @@
       <c r="E116" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A117" s="17">
         <v>1153</v>
       </c>
@@ -9232,11 +9232,11 @@
       <c r="E117" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" s="2" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A118" s="17">
         <v>1164</v>
       </c>
@@ -9252,11 +9252,11 @@
       <c r="E118" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="F118" s="2" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A119" s="17">
         <v>1176</v>
       </c>
@@ -9270,11 +9270,11 @@
       <c r="E119" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A120" s="17">
         <v>1190</v>
       </c>
@@ -9288,11 +9288,11 @@
       <c r="E120" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="F120" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A121" s="17">
         <v>1197</v>
       </c>
@@ -9306,11 +9306,11 @@
       <c r="E121" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="F121" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A122" s="17">
         <v>1198</v>
       </c>
@@ -9324,11 +9324,11 @@
       <c r="E122" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F122" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A123" s="17">
         <v>1204</v>
       </c>
@@ -9342,11 +9342,11 @@
       <c r="E123" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="F123" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A124" s="17">
         <v>1205</v>
       </c>
@@ -9360,11 +9360,11 @@
       <c r="E124" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="F124" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A125" s="17">
         <v>1206</v>
       </c>
@@ -9378,11 +9378,11 @@
       <c r="E125" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="F125" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A126" s="17">
         <v>1207</v>
       </c>
@@ -9396,11 +9396,11 @@
       <c r="E126" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="F126" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A127" s="17">
         <v>1208</v>
       </c>
@@ -9414,11 +9414,11 @@
       <c r="E127" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="F127" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A128" s="17">
         <v>1212</v>
       </c>
@@ -9432,11 +9432,11 @@
       <c r="E128" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="F128" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A129" s="17">
         <v>1234</v>
       </c>
@@ -9450,11 +9450,11 @@
       <c r="E129" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="F129" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A130" s="17">
         <v>1279</v>
       </c>
@@ -9468,11 +9468,11 @@
       <c r="E130" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F130" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A131" s="17">
         <v>1378</v>
       </c>
@@ -9488,11 +9488,11 @@
       <c r="E131" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="2" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A132" s="17">
         <v>1382</v>
       </c>
@@ -9508,11 +9508,11 @@
       <c r="E132" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="F132" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A133" s="17">
         <v>1416</v>
       </c>
@@ -9528,11 +9528,11 @@
       <c r="E133" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F133" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A134" s="17">
         <v>1442</v>
       </c>
@@ -9546,11 +9546,11 @@
       <c r="E134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="F134" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A135" s="17">
         <v>1447</v>
       </c>
@@ -9564,11 +9564,11 @@
       <c r="E135" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A136" s="17">
         <v>1474</v>
       </c>
@@ -9582,11 +9582,11 @@
       <c r="E136" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="F136" s="2" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A137" s="17">
         <v>1484</v>
       </c>
@@ -9600,11 +9600,11 @@
       <c r="E137" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="F137" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A138" s="17">
         <v>1492</v>
       </c>
@@ -9618,11 +9618,11 @@
       <c r="E138" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="F138" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A139" s="17">
         <v>1495</v>
       </c>
@@ -9636,11 +9636,11 @@
       <c r="E139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F139" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A140" s="17">
         <v>1550</v>
       </c>
@@ -9654,11 +9654,11 @@
       <c r="E140" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="F140" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A141" s="17">
         <v>1567</v>
       </c>
@@ -9672,11 +9672,11 @@
       <c r="E141" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A142" s="17">
         <v>1570</v>
       </c>
@@ -9690,11 +9690,11 @@
       <c r="E142" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A143" s="17">
         <v>1605</v>
       </c>
@@ -9708,11 +9708,11 @@
       <c r="E143" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A144" s="17">
         <v>1618</v>
       </c>
@@ -9726,11 +9726,11 @@
       <c r="E144" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A145" s="17">
         <v>1620</v>
       </c>
@@ -9744,11 +9744,11 @@
       <c r="E145" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A146" s="17">
         <v>1631</v>
       </c>
@@ -9762,11 +9762,11 @@
       <c r="E146" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="379.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A147" s="17">
         <v>1637</v>
       </c>
@@ -9780,11 +9780,11 @@
       <c r="E147" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A148" s="17">
         <v>1649</v>
       </c>
@@ -9798,11 +9798,11 @@
       <c r="E148" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A149" s="17">
         <v>1653</v>
       </c>
@@ -9816,11 +9816,11 @@
       <c r="E149" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A150" s="17">
         <v>1659</v>
       </c>
@@ -9834,11 +9834,11 @@
       <c r="E150" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A151" s="17">
         <v>1702</v>
       </c>
@@ -9852,11 +9852,11 @@
       <c r="E151" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A152" s="17">
         <v>1703</v>
       </c>
@@ -9870,11 +9870,11 @@
       <c r="E152" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A153" s="17">
         <v>1704</v>
       </c>
@@ -9888,11 +9888,11 @@
       <c r="E153" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" s="2" t="s">
         <v>1477</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A154" s="17">
         <v>1709</v>
       </c>
@@ -9906,11 +9906,11 @@
       <c r="E154" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A155" s="17">
         <v>1719</v>
       </c>
@@ -9924,11 +9924,11 @@
       <c r="E155" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A156" s="17">
         <v>1720</v>
       </c>
@@ -9942,11 +9942,11 @@
       <c r="E156" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A157" s="17">
         <v>1721</v>
       </c>
@@ -9960,11 +9960,11 @@
       <c r="E157" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A158" s="17">
         <v>1730</v>
       </c>
@@ -9978,11 +9978,11 @@
       <c r="E158" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A159" s="17">
         <v>1733</v>
       </c>
@@ -9996,11 +9996,11 @@
       <c r="E159" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A160" s="17">
         <v>1755</v>
       </c>
@@ -10014,11 +10014,11 @@
       <c r="E160" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A161" s="17">
         <v>1774</v>
       </c>
@@ -10034,11 +10034,11 @@
       <c r="E161" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A162" s="17">
         <v>1784</v>
       </c>
@@ -10054,11 +10054,11 @@
       <c r="E162" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A163" s="17">
         <v>1796</v>
       </c>
@@ -10074,11 +10074,11 @@
       <c r="E163" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A164" s="17">
         <v>1798</v>
       </c>
@@ -10094,11 +10094,11 @@
       <c r="E164" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A165" s="17">
         <v>1815</v>
       </c>
@@ -10114,11 +10114,11 @@
       <c r="E165" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A166" s="17">
         <v>1819</v>
       </c>
@@ -10134,11 +10134,11 @@
       <c r="E166" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A167" s="17">
         <v>1822</v>
       </c>
@@ -10154,11 +10154,11 @@
       <c r="E167" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" s="2" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A168" s="17">
         <v>1833</v>
       </c>
@@ -10174,11 +10174,11 @@
       <c r="E168" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A169" s="17">
         <v>1888</v>
       </c>
@@ -10192,11 +10192,11 @@
       <c r="E169" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A170" s="17">
         <v>1890</v>
       </c>
@@ -10210,11 +10210,11 @@
       <c r="E170" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A171" s="17">
         <v>1976</v>
       </c>
@@ -10228,11 +10228,11 @@
       <c r="E171" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A172" s="17">
         <v>1989</v>
       </c>
@@ -10246,11 +10246,11 @@
       <c r="E172" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A173" s="17">
         <v>2015</v>
       </c>
@@ -10264,11 +10264,11 @@
       <c r="E173" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A174" s="17">
         <v>2050</v>
       </c>
@@ -10282,11 +10282,11 @@
       <c r="E174" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A175" s="17">
         <v>2056</v>
       </c>
@@ -10300,11 +10300,11 @@
       <c r="E175" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A176" s="17">
         <v>2177</v>
       </c>
@@ -10320,11 +10320,11 @@
       <c r="E176" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="F176" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A177" s="17">
         <v>2178</v>
       </c>
@@ -10340,11 +10340,11 @@
       <c r="E177" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A178" s="17">
         <v>2190</v>
       </c>
@@ -10360,11 +10360,11 @@
       <c r="E178" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A179" s="17">
         <v>2199</v>
       </c>
@@ -10380,11 +10380,11 @@
       <c r="E179" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F179" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
       <c r="A180" s="17">
         <v>2206</v>
       </c>
@@ -10400,11 +10400,11 @@
       <c r="E180" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F180" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A181" s="17">
         <v>2209</v>
       </c>
@@ -10420,11 +10420,11 @@
       <c r="E181" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A182" s="17">
         <v>2210</v>
       </c>
@@ -10440,11 +10440,11 @@
       <c r="E182" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F182" s="2" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A183" s="17">
         <v>2270</v>
       </c>
@@ -10460,11 +10460,11 @@
       <c r="E183" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F183" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A184" s="17">
         <v>2271</v>
       </c>
@@ -10480,11 +10480,11 @@
       <c r="E184" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F184" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A185" s="17">
         <v>2272</v>
       </c>
@@ -10500,11 +10500,11 @@
       <c r="E185" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F185" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A186" s="17">
         <v>2317</v>
       </c>
@@ -10520,11 +10520,11 @@
       <c r="E186" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F186" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A187" s="17">
         <v>2321</v>
       </c>
@@ -10540,11 +10540,11 @@
       <c r="E187" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="F187" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A188" s="17">
         <v>2322</v>
       </c>
@@ -10560,11 +10560,11 @@
       <c r="E188" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="F188" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A189" s="17">
         <v>2325</v>
       </c>
@@ -10580,11 +10580,11 @@
       <c r="E189" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="F189" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A190" s="17">
         <v>2332</v>
       </c>
@@ -10600,11 +10600,11 @@
       <c r="E190" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="F190" s="2" t="s">
         <v>1482</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A191" s="17">
         <v>2334</v>
       </c>
@@ -10620,11 +10620,11 @@
       <c r="E191" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="F191" s="2" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A192" s="17">
         <v>2345</v>
       </c>
@@ -10640,11 +10640,11 @@
       <c r="E192" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F192" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A193" s="17">
         <v>2346</v>
       </c>
@@ -10660,11 +10660,11 @@
       <c r="E193" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F193" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A194" s="17">
         <v>2415</v>
       </c>
@@ -10680,11 +10680,11 @@
       <c r="E194" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="F194" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A195" s="17">
         <v>2417</v>
       </c>
@@ -10700,11 +10700,11 @@
       <c r="E195" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F195" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="313.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A196" s="17">
         <v>2420</v>
       </c>
@@ -10720,11 +10720,11 @@
       <c r="E196" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F196" s="2" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A197" s="17">
         <v>2516</v>
       </c>
@@ -10740,11 +10740,11 @@
       <c r="E197" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="F197" s="2" t="s">
         <v>1468</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A198" s="17">
         <v>2533</v>
       </c>
@@ -10760,11 +10760,11 @@
       <c r="E198" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F198" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A199" s="17">
         <v>2536</v>
       </c>
@@ -10780,11 +10780,11 @@
       <c r="E199" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F199" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A200" s="17">
         <v>2559</v>
       </c>
@@ -10800,11 +10800,11 @@
       <c r="E200" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F200" s="1" t="s">
+      <c r="F200" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A201" s="17">
         <v>2572</v>
       </c>
@@ -10820,11 +10820,11 @@
       <c r="E201" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F201" s="1" t="s">
+      <c r="F201" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A202" s="17">
         <v>2626</v>
       </c>
@@ -10840,11 +10840,11 @@
       <c r="E202" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F202" s="1" t="s">
+      <c r="F202" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A203" s="17">
         <v>2766</v>
       </c>
@@ -10860,11 +10860,11 @@
       <c r="E203" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="F203" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A204" s="17">
         <v>2859</v>
       </c>
@@ -10880,11 +10880,11 @@
       <c r="E204" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="F204" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A205" s="17">
         <v>2869</v>
       </c>
@@ -10900,11 +10900,11 @@
       <c r="E205" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F205" s="1" t="s">
+      <c r="F205" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A206" s="17">
         <v>2902</v>
       </c>
@@ -10920,11 +10920,11 @@
       <c r="E206" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F206" s="1" t="s">
+      <c r="F206" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A207" s="17">
         <v>2979</v>
       </c>
@@ -10940,11 +10940,11 @@
       <c r="E207" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F207" s="1" t="s">
+      <c r="F207" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A208" s="17">
         <v>4287</v>
       </c>
@@ -10960,11 +10960,11 @@
       <c r="E208" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F208" s="1" t="s">
+      <c r="F208" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A209" s="17">
         <v>4301</v>
       </c>
@@ -10980,11 +10980,11 @@
       <c r="E209" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="F209" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A210" s="17">
         <v>4319</v>
       </c>
@@ -11000,11 +11000,11 @@
       <c r="E210" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F210" s="1" t="s">
+      <c r="F210" s="2" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A211" s="17">
         <v>4345</v>
       </c>
@@ -11020,11 +11020,11 @@
       <c r="E211" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F211" s="1" t="s">
+      <c r="F211" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A212" s="17">
         <v>4354</v>
       </c>
@@ -11040,11 +11040,11 @@
       <c r="E212" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F212" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A213" s="17">
         <v>4364</v>
       </c>
@@ -11060,11 +11060,11 @@
       <c r="E213" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A214" s="17">
         <v>4383</v>
       </c>
@@ -11080,11 +11080,11 @@
       <c r="E214" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="F214" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A215" s="17">
         <v>4389</v>
       </c>
@@ -11100,11 +11100,11 @@
       <c r="E215" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="F215" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A216" s="17">
         <v>4397</v>
       </c>
@@ -11120,11 +11120,11 @@
       <c r="E216" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="F216" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A217" s="17">
         <v>4403</v>
       </c>
@@ -11140,11 +11140,11 @@
       <c r="E217" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F217" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A218" s="17">
         <v>4413</v>
       </c>
@@ -11160,11 +11160,11 @@
       <c r="E218" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="F218" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A219" s="17">
         <v>4427</v>
       </c>
@@ -11180,11 +11180,11 @@
       <c r="E219" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="F219" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A220" s="17">
         <v>4429</v>
       </c>
@@ -11200,11 +11200,11 @@
       <c r="E220" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="F220" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A221" s="17">
         <v>4446</v>
       </c>
@@ -11220,11 +11220,11 @@
       <c r="E221" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F221" s="2" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A222" s="17">
         <v>4447</v>
       </c>
@@ -11240,11 +11240,11 @@
       <c r="E222" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F222" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A223" s="17">
         <v>4455</v>
       </c>
@@ -11260,11 +11260,11 @@
       <c r="E223" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F223" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A224" s="17">
         <v>4468</v>
       </c>
@@ -11280,11 +11280,11 @@
       <c r="E224" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F224" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A225" s="17">
         <v>4491</v>
       </c>
@@ -11300,11 +11300,11 @@
       <c r="E225" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F225" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A226" s="17">
         <v>4511</v>
       </c>
@@ -11320,11 +11320,11 @@
       <c r="E226" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="F226" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A227" s="17">
         <v>4532</v>
       </c>
@@ -11340,11 +11340,11 @@
       <c r="E227" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="F227" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A228" s="17">
         <v>4540</v>
       </c>
@@ -11360,11 +11360,11 @@
       <c r="E228" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="F228" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A229" s="17">
         <v>4546</v>
       </c>
@@ -11380,11 +11380,11 @@
       <c r="E229" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="F229" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A230" s="17">
         <v>4554</v>
       </c>
@@ -11400,11 +11400,11 @@
       <c r="E230" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F230" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A231" s="17">
         <v>4586</v>
       </c>
@@ -11420,11 +11420,11 @@
       <c r="E231" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="F231" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A232" s="17">
         <v>4591</v>
       </c>
@@ -11440,11 +11440,11 @@
       <c r="E232" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="F232" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A233" s="17">
         <v>4592</v>
       </c>
@@ -11460,11 +11460,11 @@
       <c r="E233" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F233" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A234" s="17">
         <v>4593</v>
       </c>
@@ -11480,11 +11480,11 @@
       <c r="E234" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F234" s="1" t="s">
+      <c r="F234" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A235" s="17">
         <v>4626</v>
       </c>
@@ -11500,11 +11500,11 @@
       <c r="E235" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F235" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A236" s="17">
         <v>4633</v>
       </c>
@@ -11520,11 +11520,11 @@
       <c r="E236" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="F236" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A237" s="17">
         <v>4647</v>
       </c>
@@ -11540,11 +11540,11 @@
       <c r="E237" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F237" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A238" s="17">
         <v>4656</v>
       </c>
@@ -11560,11 +11560,11 @@
       <c r="E238" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="F238" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A239" s="17">
         <v>4669</v>
       </c>
@@ -11580,11 +11580,11 @@
       <c r="E239" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="F239" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A240" s="17">
         <v>4690</v>
       </c>
@@ -11600,11 +11600,11 @@
       <c r="E240" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F240" s="1" t="s">
+      <c r="F240" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A241" s="17">
         <v>4707</v>
       </c>
@@ -11620,11 +11620,11 @@
       <c r="E241" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="F241" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A242" s="17">
         <v>4711</v>
       </c>
@@ -11640,11 +11640,11 @@
       <c r="E242" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="F242" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A243" s="17">
         <v>4729</v>
       </c>
@@ -11660,11 +11660,11 @@
       <c r="E243" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="F243" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A244" s="17">
         <v>4731</v>
       </c>
@@ -11680,11 +11680,11 @@
       <c r="E244" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F244" s="1" t="s">
+      <c r="F244" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A245" s="17">
         <v>4741</v>
       </c>
@@ -11700,11 +11700,11 @@
       <c r="E245" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F245" s="1" t="s">
+      <c r="F245" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A246" s="17">
         <v>4742</v>
       </c>
@@ -11720,11 +11720,11 @@
       <c r="E246" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F246" s="1" t="s">
+      <c r="F246" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A247" s="17">
         <v>4743</v>
       </c>
@@ -11740,11 +11740,11 @@
       <c r="E247" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F247" s="1" t="s">
+      <c r="F247" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A248" s="17">
         <v>4744</v>
       </c>
@@ -11760,11 +11760,11 @@
       <c r="E248" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F248" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A249" s="17">
         <v>4769</v>
       </c>
@@ -11780,11 +11780,11 @@
       <c r="E249" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F249" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A250" s="17">
         <v>4772</v>
       </c>
@@ -11800,11 +11800,11 @@
       <c r="E250" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="F250" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A251" s="17">
         <v>4801</v>
       </c>
@@ -11820,11 +11820,11 @@
       <c r="E251" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="F251" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A252" s="17">
         <v>4810</v>
       </c>
@@ -11840,11 +11840,11 @@
       <c r="E252" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F252" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A253" s="17">
         <v>4816</v>
       </c>
@@ -11860,11 +11860,11 @@
       <c r="E253" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="F253" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A254" s="17">
         <v>4823</v>
       </c>
@@ -11880,11 +11880,11 @@
       <c r="E254" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="F254" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A255" s="17">
         <v>4836</v>
       </c>
@@ -11900,11 +11900,11 @@
       <c r="E255" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="F255" s="2" t="s">
         <v>1487</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A256" s="17">
         <v>4878</v>
       </c>
@@ -11920,11 +11920,11 @@
       <c r="E256" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="F256" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A257" s="17">
         <v>4880</v>
       </c>
@@ -11940,11 +11940,11 @@
       <c r="E257" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="F257" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A258" s="17">
         <v>4882</v>
       </c>
@@ -11960,11 +11960,11 @@
       <c r="E258" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F258" s="1" t="s">
+      <c r="F258" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A259" s="17">
         <v>4887</v>
       </c>
@@ -11980,11 +11980,11 @@
       <c r="E259" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F259" s="1" t="s">
+      <c r="F259" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A260" s="17">
         <v>4889</v>
       </c>
@@ -12000,11 +12000,11 @@
       <c r="E260" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F260" s="1" t="s">
+      <c r="F260" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A261" s="17">
         <v>4898</v>
       </c>
@@ -12020,11 +12020,11 @@
       <c r="E261" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F261" s="1" t="s">
+      <c r="F261" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A262" s="17">
         <v>4910</v>
       </c>
@@ -12040,11 +12040,11 @@
       <c r="E262" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F262" s="1" t="s">
+      <c r="F262" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A263" s="17">
         <v>4930</v>
       </c>
@@ -12060,11 +12060,11 @@
       <c r="E263" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F263" s="1" t="s">
+      <c r="F263" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A264" s="17">
         <v>4937</v>
       </c>
@@ -12080,11 +12080,11 @@
       <c r="E264" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F264" s="1" t="s">
+      <c r="F264" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A265" s="17">
         <v>4938</v>
       </c>
@@ -12100,11 +12100,11 @@
       <c r="E265" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F265" s="1" t="s">
+      <c r="F265" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A266" s="17">
         <v>4941</v>
       </c>
@@ -12120,11 +12120,11 @@
       <c r="E266" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F266" s="1" t="s">
+      <c r="F266" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A267" s="17">
         <v>4942</v>
       </c>
@@ -12140,11 +12140,11 @@
       <c r="E267" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F267" s="1" t="s">
+      <c r="F267" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A268" s="17">
         <v>4954</v>
       </c>
@@ -12160,11 +12160,11 @@
       <c r="E268" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F268" s="1" t="s">
+      <c r="F268" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A269" s="17">
         <v>4973</v>
       </c>
@@ -12180,11 +12180,11 @@
       <c r="E269" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F269" s="1" t="s">
+      <c r="F269" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A270" s="17">
         <v>4977</v>
       </c>
@@ -12200,11 +12200,11 @@
       <c r="E270" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F270" s="1" t="s">
+      <c r="F270" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A271" s="17">
         <v>5002</v>
       </c>
@@ -12220,11 +12220,11 @@
       <c r="E271" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F271" s="1" t="s">
+      <c r="F271" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A272" s="17">
         <v>5017</v>
       </c>
@@ -12240,11 +12240,11 @@
       <c r="E272" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F272" s="1" t="s">
+      <c r="F272" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A273" s="17">
         <v>5023</v>
       </c>
@@ -12260,11 +12260,11 @@
       <c r="E273" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F273" s="1" t="s">
+      <c r="F273" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A274" s="17">
         <v>5042</v>
       </c>
@@ -12280,11 +12280,11 @@
       <c r="E274" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F274" s="1" t="s">
+      <c r="F274" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A275" s="17">
         <v>5043</v>
       </c>
@@ -12300,11 +12300,11 @@
       <c r="E275" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F275" s="1" t="s">
+      <c r="F275" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A276" s="17">
         <v>5044</v>
       </c>
@@ -12320,11 +12320,11 @@
       <c r="E276" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F276" s="1" t="s">
+      <c r="F276" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A277" s="17">
         <v>5051</v>
       </c>
@@ -12340,11 +12340,11 @@
       <c r="E277" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F277" s="1" t="s">
+      <c r="F277" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A278" s="17">
         <v>5052</v>
       </c>
@@ -12360,11 +12360,11 @@
       <c r="E278" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F278" s="1" t="s">
+      <c r="F278" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A279" s="17">
         <v>5053</v>
       </c>
@@ -12380,11 +12380,11 @@
       <c r="E279" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F279" s="1" t="s">
+      <c r="F279" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A280" s="17">
         <v>5060</v>
       </c>
@@ -12400,11 +12400,11 @@
       <c r="E280" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F280" s="1" t="s">
+      <c r="F280" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A281" s="17">
         <v>5077</v>
       </c>
@@ -12420,11 +12420,11 @@
       <c r="E281" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F281" s="1" t="s">
+      <c r="F281" s="2" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A282" s="17">
         <v>5078</v>
       </c>
@@ -12440,11 +12440,11 @@
       <c r="E282" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F282" s="1" t="s">
+      <c r="F282" s="2" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A283" s="17">
         <v>5080</v>
       </c>
@@ -12460,11 +12460,11 @@
       <c r="E283" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F283" s="1" t="s">
+      <c r="F283" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A284" s="17">
         <v>5132</v>
       </c>
@@ -12480,11 +12480,11 @@
       <c r="E284" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F284" s="1" t="s">
+      <c r="F284" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A285" s="17">
         <v>5154</v>
       </c>
@@ -12500,11 +12500,11 @@
       <c r="E285" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F285" s="1" t="s">
+      <c r="F285" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A286" s="17">
         <v>5160</v>
       </c>
@@ -12520,11 +12520,11 @@
       <c r="E286" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F286" s="1" t="s">
+      <c r="F286" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A287" s="17">
         <v>5167</v>
       </c>
@@ -12540,11 +12540,11 @@
       <c r="E287" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F287" s="1" t="s">
+      <c r="F287" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A288" s="17">
         <v>5175</v>
       </c>
@@ -12560,11 +12560,11 @@
       <c r="E288" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F288" s="1" t="s">
+      <c r="F288" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A289" s="17">
         <v>5190</v>
       </c>
@@ -12580,11 +12580,11 @@
       <c r="E289" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F289" s="1" t="s">
+      <c r="F289" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A290" s="17">
         <v>5193</v>
       </c>
@@ -12600,11 +12600,11 @@
       <c r="E290" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F290" s="1" t="s">
+      <c r="F290" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A291" s="17">
         <v>5199</v>
       </c>
@@ -12620,11 +12620,11 @@
       <c r="E291" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F291" s="1" t="s">
+      <c r="F291" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A292" s="17">
         <v>5207</v>
       </c>
@@ -12640,11 +12640,11 @@
       <c r="E292" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F292" s="1" t="s">
+      <c r="F292" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A293" s="17">
         <v>5210</v>
       </c>
@@ -12660,11 +12660,11 @@
       <c r="E293" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F293" s="1" t="s">
+      <c r="F293" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A294" s="17">
         <v>5214</v>
       </c>
@@ -12680,11 +12680,11 @@
       <c r="E294" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F294" s="1" t="s">
+      <c r="F294" s="2" t="s">
         <v>1488</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A295" s="17">
         <v>5220</v>
       </c>
@@ -12700,11 +12700,11 @@
       <c r="E295" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F295" s="1" t="s">
+      <c r="F295" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A296" s="17">
         <v>5223</v>
       </c>
@@ -12720,11 +12720,11 @@
       <c r="E296" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F296" s="1" t="s">
+      <c r="F296" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A297" s="17">
         <v>5224</v>
       </c>
@@ -12740,11 +12740,11 @@
       <c r="E297" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F297" s="1" t="s">
+      <c r="F297" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A298" s="17">
         <v>5225</v>
       </c>
@@ -12760,11 +12760,11 @@
       <c r="E298" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F298" s="1" t="s">
+      <c r="F298" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A299" s="17">
         <v>5226</v>
       </c>
@@ -12780,11 +12780,11 @@
       <c r="E299" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F299" s="1" t="s">
+      <c r="F299" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A300" s="17">
         <v>5233</v>
       </c>
@@ -12800,11 +12800,11 @@
       <c r="E300" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F300" s="1" t="s">
+      <c r="F300" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A301" s="17">
         <v>5240</v>
       </c>
@@ -12820,11 +12820,11 @@
       <c r="E301" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F301" s="1" t="s">
+      <c r="F301" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A302" s="17">
         <v>5243</v>
       </c>
@@ -12840,11 +12840,11 @@
       <c r="E302" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F302" s="1" t="s">
+      <c r="F302" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A303" s="17">
         <v>5245</v>
       </c>
@@ -12860,11 +12860,11 @@
       <c r="E303" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F303" s="1" t="s">
+      <c r="F303" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A304" s="17">
         <v>5249</v>
       </c>
@@ -12880,11 +12880,11 @@
       <c r="E304" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F304" s="1" t="s">
+      <c r="F304" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A305" s="17">
         <v>5257</v>
       </c>
@@ -12900,11 +12900,11 @@
       <c r="E305" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F305" s="1" t="s">
+      <c r="F305" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A306" s="17">
         <v>5266</v>
       </c>
@@ -12920,11 +12920,11 @@
       <c r="E306" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F306" s="1" t="s">
+      <c r="F306" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A307" s="17">
         <v>5277</v>
       </c>
@@ -12940,11 +12940,11 @@
       <c r="E307" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F307" s="1" t="s">
+      <c r="F307" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A308" s="17">
         <v>5281</v>
       </c>
@@ -12960,11 +12960,11 @@
       <c r="E308" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F308" s="1" t="s">
+      <c r="F308" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A309" s="17">
         <v>5290</v>
       </c>
@@ -12980,11 +12980,11 @@
       <c r="E309" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F309" s="1" t="s">
+      <c r="F309" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A310" s="17">
         <v>5322</v>
       </c>
@@ -13000,11 +13000,11 @@
       <c r="E310" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F310" s="1" t="s">
+      <c r="F310" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A311" s="17">
         <v>5325</v>
       </c>
@@ -13020,11 +13020,11 @@
       <c r="E311" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F311" s="1" t="s">
+      <c r="F311" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A312" s="17">
         <v>5328</v>
       </c>
@@ -13040,11 +13040,11 @@
       <c r="E312" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F312" s="1" t="s">
+      <c r="F312" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A313" s="17">
         <v>5334</v>
       </c>
@@ -13060,11 +13060,11 @@
       <c r="E313" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F313" s="1" t="s">
+      <c r="F313" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A314" s="17">
         <v>5336</v>
       </c>
@@ -13080,11 +13080,11 @@
       <c r="E314" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F314" s="1" t="s">
+      <c r="F314" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A315" s="17">
         <v>5338</v>
       </c>
@@ -13100,11 +13100,11 @@
       <c r="E315" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F315" s="1" t="s">
+      <c r="F315" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A316" s="17">
         <v>5342</v>
       </c>
@@ -13120,11 +13120,11 @@
       <c r="E316" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F316" s="1" t="s">
+      <c r="F316" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A317" s="17">
         <v>5344</v>
       </c>
@@ -13140,11 +13140,11 @@
       <c r="E317" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F317" s="1" t="s">
+      <c r="F317" s="2" t="s">
         <v>1465</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A318" s="17">
         <v>5354</v>
       </c>
@@ -13160,11 +13160,11 @@
       <c r="E318" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F318" s="1" t="s">
+      <c r="F318" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A319" s="17">
         <v>5357</v>
       </c>
@@ -13180,11 +13180,11 @@
       <c r="E319" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F319" s="1" t="s">
+      <c r="F319" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A320" s="17">
         <v>5359</v>
       </c>
@@ -13200,11 +13200,11 @@
       <c r="E320" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F320" s="1" t="s">
+      <c r="F320" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A321" s="17">
         <v>5360</v>
       </c>
@@ -13220,11 +13220,11 @@
       <c r="E321" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F321" s="1" t="s">
+      <c r="F321" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A322" s="17">
         <v>5371</v>
       </c>
@@ -13240,11 +13240,11 @@
       <c r="E322" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F322" s="1" t="s">
+      <c r="F322" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A323" s="17">
         <v>5373</v>
       </c>
@@ -13260,11 +13260,11 @@
       <c r="E323" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F323" s="1" t="s">
+      <c r="F323" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A324" s="17">
         <v>5374</v>
       </c>
@@ -13280,11 +13280,11 @@
       <c r="E324" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F324" s="1" t="s">
+      <c r="F324" s="2" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A325" s="17">
         <v>5380</v>
       </c>
@@ -13300,11 +13300,11 @@
       <c r="E325" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F325" s="1" t="s">
+      <c r="F325" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A326" s="17">
         <v>5398</v>
       </c>
@@ -13320,11 +13320,11 @@
       <c r="E326" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F326" s="1" t="s">
+      <c r="F326" s="2" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A327" s="17">
         <v>5407</v>
       </c>
@@ -13340,11 +13340,11 @@
       <c r="E327" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F327" s="1" t="s">
+      <c r="F327" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A328" s="17">
         <v>5422</v>
       </c>
@@ -13360,11 +13360,11 @@
       <c r="E328" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F328" s="1" t="s">
+      <c r="F328" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A329" s="17">
         <v>5424</v>
       </c>
@@ -13380,11 +13380,11 @@
       <c r="E329" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F329" s="1" t="s">
+      <c r="F329" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A330" s="17">
         <v>5429</v>
       </c>
@@ -13400,11 +13400,11 @@
       <c r="E330" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F330" s="1" t="s">
+      <c r="F330" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A331" s="17">
         <v>5438</v>
       </c>
@@ -13420,11 +13420,11 @@
       <c r="E331" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F331" s="1" t="s">
+      <c r="F331" s="2" t="s">
         <v>1458</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A332" s="17">
         <v>5455</v>
       </c>
@@ -13440,11 +13440,11 @@
       <c r="E332" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F332" s="1" t="s">
+      <c r="F332" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A333" s="17">
         <v>5515</v>
       </c>
@@ -13460,11 +13460,11 @@
       <c r="E333" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F333" s="1" t="s">
+      <c r="F333" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A334" s="17">
         <v>5518</v>
       </c>
@@ -13480,11 +13480,11 @@
       <c r="E334" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F334" s="1" t="s">
+      <c r="F334" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A335" s="17">
         <v>5547</v>
       </c>
@@ -13500,11 +13500,11 @@
       <c r="E335" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F335" s="1" t="s">
+      <c r="F335" s="2" t="s">
         <v>1490</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A336" s="17">
         <v>5555</v>
       </c>
@@ -13520,11 +13520,11 @@
       <c r="E336" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F336" s="1" t="s">
+      <c r="F336" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A337" s="17">
         <v>5565</v>
       </c>
@@ -13540,11 +13540,11 @@
       <c r="E337" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F337" s="1" t="s">
+      <c r="F337" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A338" s="17">
         <v>5725</v>
       </c>
@@ -13560,11 +13560,11 @@
       <c r="E338" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F338" s="1" t="s">
+      <c r="F338" s="2" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A339" s="17">
         <v>5735</v>
       </c>
@@ -13580,11 +13580,11 @@
       <c r="E339" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F339" s="1" t="s">
+      <c r="F339" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A340" s="17">
         <v>5818</v>
       </c>
@@ -13598,11 +13598,11 @@
       <c r="E340" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F340" s="1" t="s">
+      <c r="F340" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A341" s="17">
         <v>5822</v>
       </c>
@@ -13618,11 +13618,11 @@
       <c r="E341" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F341" s="1" t="s">
+      <c r="F341" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A342" s="17">
         <v>5975</v>
       </c>
@@ -13638,11 +13638,11 @@
       <c r="E342" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F342" s="1" t="s">
+      <c r="F342" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A343" s="17">
         <v>5976</v>
       </c>
@@ -13658,11 +13658,11 @@
       <c r="E343" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F343" s="1" t="s">
+      <c r="F343" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" ht="33" x14ac:dyDescent="0.15">
       <c r="A344" s="17">
         <v>6080</v>
       </c>
@@ -13678,11 +13678,11 @@
       <c r="E344" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F344" s="1" t="s">
+      <c r="F344" s="2" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A345" s="17">
         <v>6094</v>
       </c>
@@ -13698,11 +13698,11 @@
       <c r="E345" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F345" s="1" t="s">
+      <c r="F345" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A346" s="17">
         <v>6095</v>
       </c>
@@ -13718,11 +13718,11 @@
       <c r="E346" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F346" s="1" t="s">
+      <c r="F346" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A347" s="17">
         <v>6147</v>
       </c>
@@ -13738,11 +13738,11 @@
       <c r="E347" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F347" s="1" t="s">
+      <c r="F347" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A348" s="17">
         <v>1000125</v>
       </c>
@@ -13758,11 +13758,11 @@
       <c r="E348" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F348" s="1" t="s">
+      <c r="F348" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A349" s="17">
         <v>1000126</v>
       </c>
@@ -13778,11 +13778,11 @@
       <c r="E349" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F349" s="1" t="s">
+      <c r="F349" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A350" s="17">
         <v>1000129</v>
       </c>
@@ -13798,11 +13798,11 @@
       <c r="E350" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F350" s="1" t="s">
+      <c r="F350" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A351" s="17">
         <v>1000140</v>
       </c>
@@ -13818,11 +13818,11 @@
       <c r="E351" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F351" s="1" t="s">
+      <c r="F351" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A352" s="17">
         <v>1000141</v>
       </c>
@@ -13838,11 +13838,11 @@
       <c r="E352" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F352" s="1" t="s">
+      <c r="F352" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A353" s="17">
         <v>1000143</v>
       </c>
@@ -13858,11 +13858,11 @@
       <c r="E353" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F353" s="1" t="s">
+      <c r="F353" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A354" s="17">
         <v>1000144</v>
       </c>
@@ -13878,11 +13878,11 @@
       <c r="E354" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F354" s="1" t="s">
+      <c r="F354" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A355" s="17">
         <v>1000213</v>
       </c>
@@ -13898,11 +13898,11 @@
       <c r="E355" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F355" s="1" t="s">
+      <c r="F355" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A356" s="17">
         <v>1000255</v>
       </c>
@@ -13918,11 +13918,11 @@
       <c r="E356" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F356" s="1" t="s">
+      <c r="F356" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A357" s="17">
         <v>1000297</v>
       </c>
@@ -13938,11 +13938,11 @@
       <c r="E357" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F357" s="1" t="s">
+      <c r="F357" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A358" s="17">
         <v>1000318</v>
       </c>
@@ -13958,11 +13958,11 @@
       <c r="E358" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F358" s="1" t="s">
+      <c r="F358" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A359" s="17">
         <v>1000701</v>
       </c>
@@ -13978,11 +13978,11 @@
       <c r="E359" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F359" s="1" t="s">
+      <c r="F359" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="247.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A360" s="17">
         <v>1000790</v>
       </c>
@@ -13998,11 +13998,11 @@
       <c r="E360" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F360" s="1" t="s">
+      <c r="F360" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A361" s="17">
         <v>1000820</v>
       </c>
@@ -14018,11 +14018,11 @@
       <c r="E361" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F361" s="1" t="s">
+      <c r="F361" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A362" s="17">
         <v>1000821</v>
       </c>
@@ -14038,11 +14038,11 @@
       <c r="E362" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F362" s="1" t="s">
+      <c r="F362" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A363" s="17">
         <v>1000822</v>
       </c>
@@ -14058,11 +14058,11 @@
       <c r="E363" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F363" s="1" t="s">
+      <c r="F363" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A364" s="17">
         <v>1000943</v>
       </c>
@@ -14078,11 +14078,11 @@
       <c r="E364" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F364" s="1" t="s">
+      <c r="F364" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A365" s="17">
         <v>1001226</v>
       </c>
@@ -14098,11 +14098,11 @@
       <c r="E365" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F365" s="1" t="s">
+      <c r="F365" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A366" s="17">
         <v>1001245</v>
       </c>
@@ -14118,11 +14118,11 @@
       <c r="E366" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F366" s="1" t="s">
+      <c r="F366" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A367" s="17">
         <v>1001291</v>
       </c>
@@ -14138,11 +14138,11 @@
       <c r="E367" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F367" s="1" t="s">
+      <c r="F367" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A368" s="17">
         <v>1001293</v>
       </c>
@@ -14158,11 +14158,11 @@
       <c r="E368" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F368" s="1" t="s">
+      <c r="F368" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A369" s="17">
         <v>1001301</v>
       </c>
@@ -14178,11 +14178,11 @@
       <c r="E369" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F369" s="1" t="s">
+      <c r="F369" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="231" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A370" s="17">
         <v>1001401</v>
       </c>
@@ -14198,11 +14198,11 @@
       <c r="E370" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F370" s="1" t="s">
+      <c r="F370" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A371" s="17">
         <v>1001448</v>
       </c>
@@ -14218,11 +14218,11 @@
       <c r="E371" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F371" s="1" t="s">
+      <c r="F371" s="2" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A372" s="17">
         <v>1001498</v>
       </c>
@@ -14238,11 +14238,11 @@
       <c r="E372" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F372" s="1" t="s">
+      <c r="F372" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A373" s="17">
         <v>1001586</v>
       </c>
@@ -14258,11 +14258,11 @@
       <c r="E373" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F373" s="1" t="s">
+      <c r="F373" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A374" s="17">
         <v>1001900</v>
       </c>
@@ -14278,11 +14278,11 @@
       <c r="E374" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F374" s="1" t="s">
+      <c r="F374" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A375" s="17">
         <v>1001945</v>
       </c>
@@ -14298,11 +14298,11 @@
       <c r="E375" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F375" s="1" t="s">
+      <c r="F375" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A376" s="17">
         <v>1001988</v>
       </c>
@@ -14318,11 +14318,11 @@
       <c r="E376" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F376" s="1" t="s">
+      <c r="F376" s="2" t="s">
         <v>1491</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A377" s="17">
         <v>1001998</v>
       </c>
@@ -14338,11 +14338,11 @@
       <c r="E377" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F377" s="1" t="s">
+      <c r="F377" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A378" s="17">
         <v>1002002</v>
       </c>
@@ -14358,11 +14358,11 @@
       <c r="E378" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F378" s="1" t="s">
+      <c r="F378" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A379" s="17">
         <v>1002003</v>
       </c>
@@ -14378,11 +14378,11 @@
       <c r="E379" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F379" s="1" t="s">
+      <c r="F379" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A380" s="17">
         <v>1002049</v>
       </c>
@@ -14398,11 +14398,11 @@
       <c r="E380" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F380" s="1" t="s">
+      <c r="F380" s="2" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A381" s="17">
         <v>1002054</v>
       </c>
@@ -14418,11 +14418,11 @@
       <c r="E381" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F381" s="1" t="s">
+      <c r="F381" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A382" s="17">
         <v>1002055</v>
       </c>
@@ -14438,11 +14438,11 @@
       <c r="E382" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F382" s="1" t="s">
+      <c r="F382" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A383" s="17">
         <v>1002057</v>
       </c>
@@ -14458,11 +14458,11 @@
       <c r="E383" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F383" s="1" t="s">
+      <c r="F383" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A384" s="17">
         <v>1002067</v>
       </c>
@@ -14478,11 +14478,11 @@
       <c r="E384" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F384" s="1" t="s">
+      <c r="F384" s="2" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A385" s="17">
         <v>1500026</v>
       </c>
@@ -14498,11 +14498,11 @@
       <c r="E385" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F385" s="1" t="s">
+      <c r="F385" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A386" s="17">
         <v>1500029</v>
       </c>
@@ -14518,11 +14518,11 @@
       <c r="E386" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F386" s="1" t="s">
+      <c r="F386" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A387" s="17">
         <v>1500032</v>
       </c>
@@ -14538,11 +14538,11 @@
       <c r="E387" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F387" s="1" t="s">
+      <c r="F387" s="2" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A388" s="17">
         <v>1500091</v>
       </c>
@@ -14558,11 +14558,11 @@
       <c r="E388" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F388" s="1" t="s">
+      <c r="F388" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A389" s="17">
         <v>1500102</v>
       </c>
@@ -14578,11 +14578,11 @@
       <c r="E389" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F389" s="1" t="s">
+      <c r="F389" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A390" s="17">
         <v>1500110</v>
       </c>
@@ -14598,11 +14598,11 @@
       <c r="E390" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F390" s="1" t="s">
+      <c r="F390" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A391" s="17">
         <v>1500111</v>
       </c>
@@ -14618,11 +14618,11 @@
       <c r="E391" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F391" s="1" t="s">
+      <c r="F391" s="2" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A392" s="17">
         <v>1500129</v>
       </c>
@@ -14638,11 +14638,11 @@
       <c r="E392" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F392" s="1" t="s">
+      <c r="F392" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A393" s="17">
         <v>1500138</v>
       </c>
@@ -14658,11 +14658,11 @@
       <c r="E393" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F393" s="1" t="s">
+      <c r="F393" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="264" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A394" s="17">
         <v>1500139</v>
       </c>
@@ -14678,11 +14678,11 @@
       <c r="E394" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F394" s="1" t="s">
+      <c r="F394" s="2" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A395" s="17">
         <v>1500159</v>
       </c>
@@ -14698,11 +14698,11 @@
       <c r="E395" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F395" s="1" t="s">
+      <c r="F395" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A396" s="17">
         <v>1500164</v>
       </c>
@@ -14718,11 +14718,11 @@
       <c r="E396" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F396" s="1" t="s">
+      <c r="F396" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A397" s="17">
         <v>1500168</v>
       </c>
@@ -14738,11 +14738,11 @@
       <c r="E397" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F397" s="1" t="s">
+      <c r="F397" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A398" s="17">
         <v>1500169</v>
       </c>
@@ -14758,11 +14758,11 @@
       <c r="E398" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F398" s="1" t="s">
+      <c r="F398" s="2" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A399" s="17">
         <v>1500170</v>
       </c>
@@ -14778,11 +14778,11 @@
       <c r="E399" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F399" s="1" t="s">
+      <c r="F399" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A400" s="17">
         <v>1500171</v>
       </c>
@@ -14798,11 +14798,11 @@
       <c r="E400" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F400" s="1" t="s">
+      <c r="F400" s="2" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" ht="280.5" x14ac:dyDescent="0.15">
       <c r="A401" s="17">
         <v>1500175</v>
       </c>
@@ -14818,11 +14818,11 @@
       <c r="E401" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F401" s="1" t="s">
+      <c r="F401" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A402" s="17">
         <v>1500180</v>
       </c>
@@ -14838,11 +14838,11 @@
       <c r="E402" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F402" s="1" t="s">
+      <c r="F402" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A403" s="17">
         <v>1500181</v>
       </c>
@@ -14858,11 +14858,11 @@
       <c r="E403" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F403" s="1" t="s">
+      <c r="F403" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A404" s="17">
         <v>1500182</v>
       </c>
@@ -14878,11 +14878,11 @@
       <c r="E404" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F404" s="1" t="s">
+      <c r="F404" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A405" s="17">
         <v>1500183</v>
       </c>
@@ -14898,11 +14898,11 @@
       <c r="E405" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F405" s="1" t="s">
+      <c r="F405" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A406" s="17">
         <v>1500184</v>
       </c>
@@ -14918,11 +14918,11 @@
       <c r="E406" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F406" s="1" t="s">
+      <c r="F406" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A407" s="17">
         <v>1500313</v>
       </c>
@@ -14938,11 +14938,11 @@
       <c r="E407" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F407" s="1" t="s">
+      <c r="F407" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A408" s="17">
         <v>1500327</v>
       </c>
@@ -14958,11 +14958,11 @@
       <c r="E408" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F408" s="1" t="s">
+      <c r="F408" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A409" s="17">
         <v>1500332</v>
       </c>
@@ -14978,11 +14978,11 @@
       <c r="E409" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F409" s="1" t="s">
+      <c r="F409" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A410" s="17">
         <v>1500338</v>
       </c>
@@ -14998,11 +14998,11 @@
       <c r="E410" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F410" s="1" t="s">
+      <c r="F410" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A411" s="17">
         <v>1500342</v>
       </c>
@@ -15018,11 +15018,11 @@
       <c r="E411" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F411" s="1" t="s">
+      <c r="F411" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A412" s="17">
         <v>1500360</v>
       </c>
@@ -15038,11 +15038,11 @@
       <c r="E412" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F412" s="1" t="s">
+      <c r="F412" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A413" s="17">
         <v>1500440</v>
       </c>
@@ -15058,11 +15058,11 @@
       <c r="E413" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F413" s="1" t="s">
+      <c r="F413" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A414" s="17">
         <v>1500539</v>
       </c>
@@ -15078,11 +15078,11 @@
       <c r="E414" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F414" s="1" t="s">
+      <c r="F414" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A415" s="17">
         <v>1500540</v>
       </c>
@@ -15098,11 +15098,11 @@
       <c r="E415" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F415" s="1" t="s">
+      <c r="F415" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A416" s="17">
         <v>1500541</v>
       </c>
@@ -15118,11 +15118,11 @@
       <c r="E416" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F416" s="1" t="s">
+      <c r="F416" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A417" s="17">
         <v>1500737</v>
       </c>
@@ -15138,11 +15138,11 @@
       <c r="E417" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F417" s="1" t="s">
+      <c r="F417" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A418" s="17">
         <v>1500793</v>
       </c>
@@ -15158,11 +15158,11 @@
       <c r="E418" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F418" s="1" t="s">
+      <c r="F418" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A419" s="17">
         <v>1500833</v>
       </c>
@@ -15178,11 +15178,11 @@
       <c r="E419" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F419" s="1" t="s">
+      <c r="F419" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A420" s="17">
         <v>1500926</v>
       </c>
@@ -15198,11 +15198,11 @@
       <c r="E420" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F420" s="1" t="s">
+      <c r="F420" s="2" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A421" s="17">
         <v>1501106</v>
       </c>
@@ -15218,11 +15218,11 @@
       <c r="E421" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F421" s="1" t="s">
+      <c r="F421" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A422" s="17">
         <v>1501133</v>
       </c>
@@ -15238,11 +15238,11 @@
       <c r="E422" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F422" s="1" t="s">
+      <c r="F422" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A423" s="17">
         <v>1501180</v>
       </c>
@@ -15258,11 +15258,11 @@
       <c r="E423" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F423" s="1" t="s">
+      <c r="F423" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A424" s="17">
         <v>1501183</v>
       </c>
@@ -15278,11 +15278,11 @@
       <c r="E424" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F424" s="1" t="s">
+      <c r="F424" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A425" s="17">
         <v>1501184</v>
       </c>
@@ -15298,11 +15298,11 @@
       <c r="E425" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F425" s="1" t="s">
+      <c r="F425" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="247.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A426" s="17">
         <v>1501312</v>
       </c>
@@ -15318,11 +15318,11 @@
       <c r="E426" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F426" s="1" t="s">
+      <c r="F426" s="2" t="s">
         <v>1494</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A427" s="17">
         <v>1501330</v>
       </c>
@@ -15338,11 +15338,11 @@
       <c r="E427" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F427" s="1" t="s">
+      <c r="F427" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A428" s="17">
         <v>1501395</v>
       </c>
@@ -15358,11 +15358,11 @@
       <c r="E428" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F428" s="1" t="s">
+      <c r="F428" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A429" s="17">
         <v>1501448</v>
       </c>
@@ -15378,11 +15378,11 @@
       <c r="E429" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F429" s="1" t="s">
+      <c r="F429" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A430" s="17">
         <v>1501456</v>
       </c>
@@ -15398,11 +15398,11 @@
       <c r="E430" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F430" s="1" t="s">
+      <c r="F430" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A431" s="17">
         <v>1501534</v>
       </c>
@@ -15418,11 +15418,11 @@
       <c r="E431" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F431" s="1" t="s">
+      <c r="F431" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A432" s="17">
         <v>1501535</v>
       </c>
@@ -15438,11 +15438,11 @@
       <c r="E432" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F432" s="1" t="s">
+      <c r="F432" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A433" s="17">
         <v>1501758</v>
       </c>
@@ -15458,11 +15458,11 @@
       <c r="E433" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F433" s="1" t="s">
+      <c r="F433" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A434" s="17">
         <v>1501772</v>
       </c>
@@ -15478,11 +15478,11 @@
       <c r="E434" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F434" s="1" t="s">
+      <c r="F434" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A435" s="17">
         <v>1501822</v>
       </c>
@@ -15498,11 +15498,11 @@
       <c r="E435" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F435" s="1" t="s">
+      <c r="F435" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A436" s="17">
         <v>1501825</v>
       </c>
@@ -15518,11 +15518,11 @@
       <c r="E436" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F436" s="1" t="s">
+      <c r="F436" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A437" s="17">
         <v>1501844</v>
       </c>
@@ -15538,11 +15538,11 @@
       <c r="E437" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F437" s="1" t="s">
+      <c r="F437" s="2" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" ht="66" x14ac:dyDescent="0.15">
       <c r="A438" s="17">
         <v>1501932</v>
       </c>
@@ -15558,11 +15558,11 @@
       <c r="E438" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F438" s="1" t="s">
+      <c r="F438" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A439" s="17">
         <v>1501988</v>
       </c>
@@ -15578,11 +15578,11 @@
       <c r="E439" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F439" s="1" t="s">
+      <c r="F439" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A440" s="17">
         <v>1502186</v>
       </c>
@@ -15598,11 +15598,11 @@
       <c r="E440" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F440" s="1" t="s">
+      <c r="F440" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A441" s="17">
         <v>1502211</v>
       </c>
@@ -15618,11 +15618,11 @@
       <c r="E441" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F441" s="1" t="s">
+      <c r="F441" s="2" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A442" s="17">
         <v>1502250</v>
       </c>
@@ -15638,11 +15638,11 @@
       <c r="E442" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F442" s="1" t="s">
+      <c r="F442" s="2" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A443" s="17">
         <v>1502479</v>
       </c>
@@ -15658,11 +15658,11 @@
       <c r="E443" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F443" s="1" t="s">
+      <c r="F443" s="2" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A444" s="17">
         <v>1502502</v>
       </c>
@@ -15678,11 +15678,11 @@
       <c r="E444" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F444" s="1" t="s">
+      <c r="F444" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A445" s="17">
         <v>1502503</v>
       </c>
@@ -15698,11 +15698,11 @@
       <c r="E445" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F445" s="1" t="s">
+      <c r="F445" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A446" s="17">
         <v>1502504</v>
       </c>
@@ -15718,11 +15718,11 @@
       <c r="E446" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F446" s="1" t="s">
+      <c r="F446" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A447" s="17">
         <v>1502516</v>
       </c>
@@ -15738,11 +15738,11 @@
       <c r="E447" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F447" s="1" t="s">
+      <c r="F447" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A448" s="17">
         <v>1502528</v>
       </c>
@@ -15758,11 +15758,11 @@
       <c r="E448" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F448" s="1" t="s">
+      <c r="F448" s="2" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A449" s="17">
         <v>1502532</v>
       </c>
@@ -15778,11 +15778,11 @@
       <c r="E449" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F449" s="1" t="s">
+      <c r="F449" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A450" s="17">
         <v>1502533</v>
       </c>
@@ -15798,11 +15798,11 @@
       <c r="E450" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F450" s="1" t="s">
+      <c r="F450" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A451" s="17">
         <v>1502589</v>
       </c>
@@ -15818,11 +15818,11 @@
       <c r="E451" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F451" s="1" t="s">
+      <c r="F451" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A452" s="17">
         <v>1502603</v>
       </c>
@@ -15838,11 +15838,11 @@
       <c r="E452" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F452" s="1" t="s">
+      <c r="F452" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A453" s="17">
         <v>1502604</v>
       </c>
@@ -15858,11 +15858,11 @@
       <c r="E453" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F453" s="1" t="s">
+      <c r="F453" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A454" s="17">
         <v>1502606</v>
       </c>
@@ -15878,11 +15878,11 @@
       <c r="E454" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F454" s="1" t="s">
+      <c r="F454" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A455" s="17">
         <v>1502607</v>
       </c>
@@ -15898,11 +15898,11 @@
       <c r="E455" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F455" s="1" t="s">
+      <c r="F455" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A456" s="17">
         <v>1502610</v>
       </c>
@@ -15918,11 +15918,11 @@
       <c r="E456" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F456" s="1" t="s">
+      <c r="F456" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A457" s="17">
         <v>1502611</v>
       </c>
@@ -15938,11 +15938,11 @@
       <c r="E457" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F457" s="1" t="s">
+      <c r="F457" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A458" s="17">
         <v>1502615</v>
       </c>
@@ -15958,11 +15958,11 @@
       <c r="E458" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F458" s="1" t="s">
+      <c r="F458" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A459" s="17">
         <v>1502616</v>
       </c>
@@ -15978,11 +15978,11 @@
       <c r="E459" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F459" s="1" t="s">
+      <c r="F459" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A460" s="17">
         <v>1502618</v>
       </c>
@@ -15998,11 +15998,11 @@
       <c r="E460" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F460" s="1" t="s">
+      <c r="F460" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A461" s="17">
         <v>1502619</v>
       </c>
@@ -16018,11 +16018,11 @@
       <c r="E461" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F461" s="1" t="s">
+      <c r="F461" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A462" s="17">
         <v>1505391</v>
       </c>
@@ -16038,11 +16038,11 @@
       <c r="E462" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F462" s="1" t="s">
+      <c r="F462" s="2" t="s">
         <v>1462</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A463" s="17">
         <v>1505485</v>
       </c>
@@ -16058,11 +16058,11 @@
       <c r="E463" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F463" s="1" t="s">
+      <c r="F463" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" ht="181.5" x14ac:dyDescent="0.15">
       <c r="A464" s="17">
         <v>1505487</v>
       </c>
@@ -16078,11 +16078,11 @@
       <c r="E464" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F464" s="1" t="s">
+      <c r="F464" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A465" s="17">
         <v>1505557</v>
       </c>
@@ -16098,11 +16098,11 @@
       <c r="E465" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F465" s="1" t="s">
+      <c r="F465" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A466" s="17">
         <v>1505558</v>
       </c>
@@ -16118,11 +16118,11 @@
       <c r="E466" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F466" s="1" t="s">
+      <c r="F466" s="2" t="s">
         <v>1496</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A467" s="17">
         <v>1505571</v>
       </c>
@@ -16138,7 +16138,7 @@
       <c r="E467" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F467" s="1" t="s">
+      <c r="F467" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -16158,11 +16158,11 @@
       <c r="E468" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F468" s="1" t="s">
+      <c r="F468" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A469" s="17">
         <v>1505587</v>
       </c>
@@ -16178,11 +16178,11 @@
       <c r="E469" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F469" s="1" t="s">
+      <c r="F469" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A470" s="17">
         <v>1505588</v>
       </c>
@@ -16198,11 +16198,11 @@
       <c r="E470" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F470" s="1" t="s">
+      <c r="F470" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A471" s="17">
         <v>1505590</v>
       </c>
@@ -16218,11 +16218,11 @@
       <c r="E471" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F471" s="1" t="s">
+      <c r="F471" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="165" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A472" s="17">
         <v>1505591</v>
       </c>
@@ -16238,11 +16238,11 @@
       <c r="E472" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F472" s="1" t="s">
+      <c r="F472" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A473" s="17">
         <v>1505622</v>
       </c>
@@ -16258,11 +16258,11 @@
       <c r="E473" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F473" s="1" t="s">
+      <c r="F473" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="198" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A474" s="17">
         <v>1505671</v>
       </c>
@@ -16278,11 +16278,11 @@
       <c r="E474" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F474" s="1" t="s">
+      <c r="F474" s="2" t="s">
         <v>1493</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A475" s="17">
         <v>1505750</v>
       </c>
@@ -16298,11 +16298,11 @@
       <c r="E475" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F475" s="1" t="s">
+      <c r="F475" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="132" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A476" s="17">
         <v>1505751</v>
       </c>
@@ -16318,11 +16318,11 @@
       <c r="E476" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F476" s="1" t="s">
+      <c r="F476" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A477" s="17">
         <v>1505773</v>
       </c>
@@ -16338,11 +16338,11 @@
       <c r="E477" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F477" s="1" t="s">
+      <c r="F477" s="2" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A478" s="17">
         <v>1505808</v>
       </c>
@@ -16358,11 +16358,11 @@
       <c r="E478" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F478" s="1" t="s">
+      <c r="F478" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A479" s="17">
         <v>1506177</v>
       </c>
@@ -16378,11 +16378,11 @@
       <c r="E479" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F479" s="1" t="s">
+      <c r="F479" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A480" s="17">
         <v>1506299</v>
       </c>
@@ -16398,11 +16398,11 @@
       <c r="E480" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F480" s="1" t="s">
+      <c r="F480" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A481" s="17">
         <v>1506300</v>
       </c>
@@ -16418,11 +16418,11 @@
       <c r="E481" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F481" s="1" t="s">
+      <c r="F481" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A482" s="17">
         <v>1506301</v>
       </c>
@@ -16438,11 +16438,11 @@
       <c r="E482" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F482" s="1" t="s">
+      <c r="F482" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A483" s="17">
         <v>1506302</v>
       </c>
@@ -16458,11 +16458,11 @@
       <c r="E483" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F483" s="1" t="s">
+      <c r="F483" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A484" s="17">
         <v>1507342</v>
       </c>
@@ -16478,11 +16478,11 @@
       <c r="E484" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F484" s="1" t="s">
+      <c r="F484" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A485" s="17">
         <v>1507343</v>
       </c>
@@ -16498,11 +16498,11 @@
       <c r="E485" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F485" s="1" t="s">
+      <c r="F485" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A486" s="17">
         <v>1507346</v>
       </c>
@@ -16518,11 +16518,11 @@
       <c r="E486" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F486" s="1" t="s">
+      <c r="F486" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A487" s="17">
         <v>1507347</v>
       </c>
@@ -16538,11 +16538,11 @@
       <c r="E487" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F487" s="1" t="s">
+      <c r="F487" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A488" s="17">
         <v>1507348</v>
       </c>
@@ -16558,11 +16558,11 @@
       <c r="E488" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F488" s="1" t="s">
+      <c r="F488" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A489" s="17">
         <v>1507349</v>
       </c>
@@ -16578,11 +16578,11 @@
       <c r="E489" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F489" s="1" t="s">
+      <c r="F489" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A490" s="17">
         <v>1507977</v>
       </c>
@@ -16598,11 +16598,11 @@
       <c r="E490" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F490" s="1" t="s">
+      <c r="F490" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A491" s="17">
         <v>1507978</v>
       </c>
@@ -16618,11 +16618,11 @@
       <c r="E491" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F491" s="1" t="s">
+      <c r="F491" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A492" s="17">
         <v>1507981</v>
       </c>
@@ -16638,11 +16638,11 @@
       <c r="E492" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F492" s="1" t="s">
+      <c r="F492" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A493" s="17">
         <v>1507982</v>
       </c>
@@ -16658,11 +16658,11 @@
       <c r="E493" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F493" s="1" t="s">
+      <c r="F493" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A494" s="17">
         <v>1507983</v>
       </c>
@@ -16678,11 +16678,11 @@
       <c r="E494" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F494" s="1" t="s">
+      <c r="F494" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A495" s="17">
         <v>1507984</v>
       </c>
@@ -16698,11 +16698,11 @@
       <c r="E495" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F495" s="1" t="s">
+      <c r="F495" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A496" s="17">
         <v>1508182</v>
       </c>
@@ -16718,11 +16718,11 @@
       <c r="E496" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F496" s="1" t="s">
+      <c r="F496" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A497" s="17">
         <v>1508223</v>
       </c>
@@ -16738,11 +16738,11 @@
       <c r="E497" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F497" s="1" t="s">
+      <c r="F497" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A498" s="17">
         <v>1508279</v>
       </c>
@@ -16758,11 +16758,11 @@
       <c r="E498" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F498" s="1" t="s">
+      <c r="F498" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A499" s="17">
         <v>1508285</v>
       </c>
@@ -16778,11 +16778,11 @@
       <c r="E499" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F499" s="1" t="s">
+      <c r="F499" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A500" s="17">
         <v>1508286</v>
       </c>
@@ -16798,11 +16798,11 @@
       <c r="E500" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F500" s="1" t="s">
+      <c r="F500" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A501" s="17">
         <v>1508287</v>
       </c>
@@ -16818,11 +16818,11 @@
       <c r="E501" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F501" s="1" t="s">
+      <c r="F501" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A502" s="17">
         <v>1508293</v>
       </c>
@@ -16838,11 +16838,11 @@
       <c r="E502" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F502" s="1" t="s">
+      <c r="F502" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A503" s="17">
         <v>1508294</v>
       </c>
@@ -16858,11 +16858,11 @@
       <c r="E503" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F503" s="1" t="s">
+      <c r="F503" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A504" s="17">
         <v>1508295</v>
       </c>
@@ -16878,11 +16878,11 @@
       <c r="E504" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F504" s="1" t="s">
+      <c r="F504" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A505" s="17">
         <v>1508296</v>
       </c>
@@ -16898,11 +16898,11 @@
       <c r="E505" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F505" s="1" t="s">
+      <c r="F505" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A506" s="17">
         <v>1508298</v>
       </c>
@@ -16918,11 +16918,11 @@
       <c r="E506" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F506" s="1" t="s">
+      <c r="F506" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A507" s="17">
         <v>1508299</v>
       </c>
@@ -16938,11 +16938,11 @@
       <c r="E507" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F507" s="1" t="s">
+      <c r="F507" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A508" s="17">
         <v>1508300</v>
       </c>
@@ -16958,11 +16958,11 @@
       <c r="E508" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F508" s="1" t="s">
+      <c r="F508" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A509" s="17">
         <v>1508304</v>
       </c>
@@ -16978,11 +16978,11 @@
       <c r="E509" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F509" s="1" t="s">
+      <c r="F509" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A510" s="17">
         <v>1508318</v>
       </c>
@@ -16998,11 +16998,11 @@
       <c r="E510" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F510" s="1" t="s">
+      <c r="F510" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A511" s="17">
         <v>1508324</v>
       </c>
@@ -17018,11 +17018,11 @@
       <c r="E511" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F511" s="1" t="s">
+      <c r="F511" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A512" s="17">
         <v>1508329</v>
       </c>
@@ -17038,11 +17038,11 @@
       <c r="E512" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F512" s="1" t="s">
+      <c r="F512" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A513" s="17">
         <v>1508358</v>
       </c>
@@ -17058,11 +17058,11 @@
       <c r="E513" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F513" s="1" t="s">
+      <c r="F513" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A514" s="17">
         <v>1508361</v>
       </c>
@@ -17078,11 +17078,11 @@
       <c r="E514" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F514" s="1" t="s">
+      <c r="F514" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A515" s="17">
         <v>1508362</v>
       </c>
@@ -17098,11 +17098,11 @@
       <c r="E515" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F515" s="1" t="s">
+      <c r="F515" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A516" s="17">
         <v>1508384</v>
       </c>
@@ -17118,11 +17118,11 @@
       <c r="E516" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F516" s="1" t="s">
+      <c r="F516" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A517" s="17">
         <v>1508385</v>
       </c>
@@ -17138,11 +17138,11 @@
       <c r="E517" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F517" s="1" t="s">
+      <c r="F517" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A518" s="17">
         <v>1508386</v>
       </c>
@@ -17158,11 +17158,11 @@
       <c r="E518" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F518" s="1" t="s">
+      <c r="F518" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A519" s="17">
         <v>1508473</v>
       </c>
@@ -17178,11 +17178,11 @@
       <c r="E519" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F519" s="1" t="s">
+      <c r="F519" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A520" s="17">
         <v>1508481</v>
       </c>
@@ -17198,11 +17198,11 @@
       <c r="E520" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F520" s="1" t="s">
+      <c r="F520" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A521" s="17">
         <v>1508504</v>
       </c>
@@ -17218,11 +17218,11 @@
       <c r="E521" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F521" s="1" t="s">
+      <c r="F521" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A522" s="17">
         <v>1508583</v>
       </c>
@@ -17238,11 +17238,11 @@
       <c r="E522" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F522" s="1" t="s">
+      <c r="F522" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A523" s="17">
         <v>1508674</v>
       </c>
@@ -17258,11 +17258,11 @@
       <c r="E523" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F523" s="1" t="s">
+      <c r="F523" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A524" s="17">
         <v>1508797</v>
       </c>
@@ -17278,11 +17278,11 @@
       <c r="E524" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F524" s="1" t="s">
+      <c r="F524" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A525" s="17">
         <v>1508799</v>
       </c>
@@ -17298,11 +17298,11 @@
       <c r="E525" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F525" s="1" t="s">
+      <c r="F525" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A526" s="17">
         <v>1508800</v>
       </c>
@@ -17318,11 +17318,11 @@
       <c r="E526" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F526" s="1" t="s">
+      <c r="F526" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A527" s="17">
         <v>1508914</v>
       </c>
@@ -17338,11 +17338,11 @@
       <c r="E527" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F527" s="1" t="s">
+      <c r="F527" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A528" s="17">
         <v>1508916</v>
       </c>
@@ -17358,11 +17358,11 @@
       <c r="E528" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F528" s="1" t="s">
+      <c r="F528" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A529" s="17">
         <v>1508917</v>
       </c>
@@ -17378,11 +17378,11 @@
       <c r="E529" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F529" s="1" t="s">
+      <c r="F529" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A530" s="17">
         <v>1509065</v>
       </c>
@@ -17398,11 +17398,11 @@
       <c r="E530" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F530" s="1" t="s">
+      <c r="F530" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A531" s="17">
         <v>1509071</v>
       </c>
@@ -17418,11 +17418,11 @@
       <c r="E531" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F531" s="1" t="s">
+      <c r="F531" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A532" s="17">
         <v>1509072</v>
       </c>
@@ -17438,11 +17438,11 @@
       <c r="E532" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F532" s="1" t="s">
+      <c r="F532" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A533" s="17">
         <v>1509073</v>
       </c>
@@ -17458,11 +17458,11 @@
       <c r="E533" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F533" s="1" t="s">
+      <c r="F533" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A534" s="17">
         <v>1509079</v>
       </c>
@@ -17478,11 +17478,11 @@
       <c r="E534" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F534" s="1" t="s">
+      <c r="F534" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A535" s="17">
         <v>1509080</v>
       </c>
@@ -17498,11 +17498,11 @@
       <c r="E535" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F535" s="1" t="s">
+      <c r="F535" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A536" s="17">
         <v>1509081</v>
       </c>
@@ -17518,11 +17518,11 @@
       <c r="E536" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F536" s="1" t="s">
+      <c r="F536" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A537" s="17">
         <v>1509082</v>
       </c>
@@ -17538,11 +17538,11 @@
       <c r="E537" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F537" s="1" t="s">
+      <c r="F537" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A538" s="17">
         <v>1509084</v>
       </c>
@@ -17558,11 +17558,11 @@
       <c r="E538" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F538" s="1" t="s">
+      <c r="F538" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A539" s="17">
         <v>1509085</v>
       </c>
@@ -17578,11 +17578,11 @@
       <c r="E539" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F539" s="1" t="s">
+      <c r="F539" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A540" s="17">
         <v>1509086</v>
       </c>
@@ -17598,11 +17598,11 @@
       <c r="E540" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F540" s="1" t="s">
+      <c r="F540" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A541" s="17">
         <v>1509090</v>
       </c>
@@ -17618,11 +17618,11 @@
       <c r="E541" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F541" s="1" t="s">
+      <c r="F541" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A542" s="17">
         <v>1509104</v>
       </c>
@@ -17638,11 +17638,11 @@
       <c r="E542" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F542" s="1" t="s">
+      <c r="F542" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A543" s="17">
         <v>1509110</v>
       </c>
@@ -17658,11 +17658,11 @@
       <c r="E543" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F543" s="1" t="s">
+      <c r="F543" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A544" s="17">
         <v>1509115</v>
       </c>
@@ -17678,11 +17678,11 @@
       <c r="E544" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F544" s="1" t="s">
+      <c r="F544" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A545" s="17">
         <v>1509144</v>
       </c>
@@ -17698,11 +17698,11 @@
       <c r="E545" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F545" s="1" t="s">
+      <c r="F545" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A546" s="17">
         <v>1509147</v>
       </c>
@@ -17718,11 +17718,11 @@
       <c r="E546" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F546" s="1" t="s">
+      <c r="F546" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A547" s="17">
         <v>1509148</v>
       </c>
@@ -17738,11 +17738,11 @@
       <c r="E547" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F547" s="1" t="s">
+      <c r="F547" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A548" s="17">
         <v>1509170</v>
       </c>
@@ -17758,11 +17758,11 @@
       <c r="E548" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F548" s="1" t="s">
+      <c r="F548" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A549" s="17">
         <v>1509171</v>
       </c>
@@ -17778,11 +17778,11 @@
       <c r="E549" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F549" s="1" t="s">
+      <c r="F549" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A550" s="17">
         <v>1509172</v>
       </c>
@@ -17798,11 +17798,11 @@
       <c r="E550" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F550" s="1" t="s">
+      <c r="F550" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A551" s="17">
         <v>1509259</v>
       </c>
@@ -17818,11 +17818,11 @@
       <c r="E551" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F551" s="1" t="s">
+      <c r="F551" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A552" s="17">
         <v>1509267</v>
       </c>
@@ -17838,11 +17838,11 @@
       <c r="E552" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F552" s="1" t="s">
+      <c r="F552" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A553" s="17">
         <v>1509290</v>
       </c>
@@ -17858,11 +17858,11 @@
       <c r="E553" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F553" s="1" t="s">
+      <c r="F553" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A554" s="17">
         <v>1509369</v>
       </c>
@@ -17878,11 +17878,11 @@
       <c r="E554" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F554" s="1" t="s">
+      <c r="F554" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A555" s="17">
         <v>1509460</v>
       </c>
@@ -17898,11 +17898,11 @@
       <c r="E555" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F555" s="1" t="s">
+      <c r="F555" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A556" s="17">
         <v>1509575</v>
       </c>
@@ -17918,11 +17918,11 @@
       <c r="E556" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F556" s="1" t="s">
+      <c r="F556" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A557" s="17">
         <v>1509581</v>
       </c>
@@ -17938,11 +17938,11 @@
       <c r="E557" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F557" s="1" t="s">
+      <c r="F557" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A558" s="17">
         <v>1509582</v>
       </c>
@@ -17958,11 +17958,11 @@
       <c r="E558" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F558" s="1" t="s">
+      <c r="F558" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A559" s="17">
         <v>1509583</v>
       </c>
@@ -17978,11 +17978,11 @@
       <c r="E559" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F559" s="1" t="s">
+      <c r="F559" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A560" s="17">
         <v>1509589</v>
       </c>
@@ -17998,11 +17998,11 @@
       <c r="E560" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F560" s="1" t="s">
+      <c r="F560" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A561" s="17">
         <v>1509590</v>
       </c>
@@ -18018,11 +18018,11 @@
       <c r="E561" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F561" s="1" t="s">
+      <c r="F561" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A562" s="17">
         <v>1509591</v>
       </c>
@@ -18038,11 +18038,11 @@
       <c r="E562" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F562" s="1" t="s">
+      <c r="F562" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A563" s="17">
         <v>1509592</v>
       </c>
@@ -18058,11 +18058,11 @@
       <c r="E563" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F563" s="1" t="s">
+      <c r="F563" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A564" s="17">
         <v>1509594</v>
       </c>
@@ -18078,11 +18078,11 @@
       <c r="E564" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F564" s="1" t="s">
+      <c r="F564" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A565" s="17">
         <v>1509595</v>
       </c>
@@ -18098,11 +18098,11 @@
       <c r="E565" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F565" s="1" t="s">
+      <c r="F565" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A566" s="17">
         <v>1509596</v>
       </c>
@@ -18118,11 +18118,11 @@
       <c r="E566" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F566" s="1" t="s">
+      <c r="F566" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A567" s="17">
         <v>1509600</v>
       </c>
@@ -18138,11 +18138,11 @@
       <c r="E567" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F567" s="1" t="s">
+      <c r="F567" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A568" s="17">
         <v>1509614</v>
       </c>
@@ -18158,11 +18158,11 @@
       <c r="E568" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F568" s="1" t="s">
+      <c r="F568" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A569" s="17">
         <v>1509620</v>
       </c>
@@ -18178,11 +18178,11 @@
       <c r="E569" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F569" s="1" t="s">
+      <c r="F569" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A570" s="17">
         <v>1509625</v>
       </c>
@@ -18198,11 +18198,11 @@
       <c r="E570" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F570" s="1" t="s">
+      <c r="F570" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A571" s="17">
         <v>1509654</v>
       </c>
@@ -18218,11 +18218,11 @@
       <c r="E571" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F571" s="1" t="s">
+      <c r="F571" s="2" t="s">
         <v>1480</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A572" s="17">
         <v>1509657</v>
       </c>
@@ -18238,11 +18238,11 @@
       <c r="E572" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F572" s="1" t="s">
+      <c r="F572" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A573" s="17">
         <v>1509658</v>
       </c>
@@ -18258,11 +18258,11 @@
       <c r="E573" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F573" s="1" t="s">
+      <c r="F573" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A574" s="17">
         <v>1509680</v>
       </c>
@@ -18278,11 +18278,11 @@
       <c r="E574" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F574" s="1" t="s">
+      <c r="F574" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A575" s="17">
         <v>1509681</v>
       </c>
@@ -18298,11 +18298,11 @@
       <c r="E575" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F575" s="1" t="s">
+      <c r="F575" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A576" s="17">
         <v>1509682</v>
       </c>
@@ -18318,11 +18318,11 @@
       <c r="E576" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F576" s="1" t="s">
+      <c r="F576" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A577" s="17">
         <v>1509769</v>
       </c>
@@ -18338,11 +18338,11 @@
       <c r="E577" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F577" s="1" t="s">
+      <c r="F577" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A578" s="17">
         <v>1509777</v>
       </c>
@@ -18358,11 +18358,11 @@
       <c r="E578" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F578" s="1" t="s">
+      <c r="F578" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A579" s="17">
         <v>1509800</v>
       </c>
@@ -18378,11 +18378,11 @@
       <c r="E579" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F579" s="1" t="s">
+      <c r="F579" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A580" s="17">
         <v>1509879</v>
       </c>
@@ -18398,11 +18398,11 @@
       <c r="E580" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F580" s="1" t="s">
+      <c r="F580" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A581" s="17">
         <v>1509970</v>
       </c>
@@ -18418,11 +18418,11 @@
       <c r="E581" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F581" s="1" t="s">
+      <c r="F581" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A582" s="17">
         <v>1510165</v>
       </c>
@@ -18438,11 +18438,11 @@
       <c r="E582" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F582" s="1" t="s">
+      <c r="F582" s="2" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A583" s="17">
         <v>1510177</v>
       </c>
@@ -18458,11 +18458,11 @@
       <c r="E583" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F583" s="1" t="s">
+      <c r="F583" s="2" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A584" s="17">
         <v>1510178</v>
       </c>
@@ -18478,11 +18478,11 @@
       <c r="E584" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F584" s="1" t="s">
+      <c r="F584" s="2" t="s">
         <v>1469</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A585" s="17">
         <v>1510303</v>
       </c>
@@ -18498,11 +18498,11 @@
       <c r="E585" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F585" s="1" t="s">
+      <c r="F585" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A586" s="17">
         <v>1510304</v>
       </c>
@@ -18518,11 +18518,11 @@
       <c r="E586" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F586" s="1" t="s">
+      <c r="F586" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A587" s="17">
         <v>1510435</v>
       </c>
@@ -18538,11 +18538,11 @@
       <c r="E587" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F587" s="1" t="s">
+      <c r="F587" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A588" s="17">
         <v>1510522</v>
       </c>
@@ -18558,11 +18558,11 @@
       <c r="E588" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F588" s="1" t="s">
+      <c r="F588" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A589" s="17">
         <v>1510526</v>
       </c>
@@ -18578,11 +18578,11 @@
       <c r="E589" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F589" s="1" t="s">
+      <c r="F589" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A590" s="17">
         <v>1510564</v>
       </c>
@@ -18598,11 +18598,11 @@
       <c r="E590" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F590" s="1" t="s">
+      <c r="F590" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A591" s="17">
         <v>1510571</v>
       </c>
@@ -18618,11 +18618,11 @@
       <c r="E591" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F591" s="1" t="s">
+      <c r="F591" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="346.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A592" s="17">
         <v>1510575</v>
       </c>
@@ -18638,11 +18638,11 @@
       <c r="E592" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F592" s="1" t="s">
+      <c r="F592" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A593" s="17">
         <v>1510688</v>
       </c>
@@ -18658,11 +18658,11 @@
       <c r="E593" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F593" s="1" t="s">
+      <c r="F593" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A594" s="17">
         <v>1510691</v>
       </c>
@@ -18678,11 +18678,11 @@
       <c r="E594" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F594" s="1" t="s">
+      <c r="F594" s="2" t="s">
         <v>1484</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="99" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A595" s="17">
         <v>1510753</v>
       </c>
@@ -18698,11 +18698,11 @@
       <c r="E595" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F595" s="1" t="s">
+      <c r="F595" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="165" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A596" s="17">
         <v>1510757</v>
       </c>
@@ -18718,11 +18718,11 @@
       <c r="E596" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F596" s="1" t="s">
+      <c r="F596" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A597" s="17">
         <v>1510789</v>
       </c>
@@ -18738,11 +18738,11 @@
       <c r="E597" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F597" s="1" t="s">
+      <c r="F597" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A598" s="17">
         <v>1510790</v>
       </c>
@@ -18758,11 +18758,11 @@
       <c r="E598" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F598" s="1" t="s">
+      <c r="F598" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A599" s="17">
         <v>1510791</v>
       </c>
@@ -18778,11 +18778,11 @@
       <c r="E599" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F599" s="1" t="s">
+      <c r="F599" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A600" s="17">
         <v>1510792</v>
       </c>
@@ -18798,11 +18798,11 @@
       <c r="E600" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F600" s="1" t="s">
+      <c r="F600" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A601" s="17">
         <v>1510793</v>
       </c>
@@ -18818,11 +18818,11 @@
       <c r="E601" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F601" s="1" t="s">
+      <c r="F601" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A602" s="17">
         <v>1510794</v>
       </c>
@@ -18838,11 +18838,11 @@
       <c r="E602" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F602" s="1" t="s">
+      <c r="F602" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A603" s="17">
         <v>1510795</v>
       </c>
@@ -18858,11 +18858,11 @@
       <c r="E603" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F603" s="1" t="s">
+      <c r="F603" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A604" s="17">
         <v>1510797</v>
       </c>
@@ -18878,11 +18878,11 @@
       <c r="E604" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F604" s="1" t="s">
+      <c r="F604" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A605" s="17">
         <v>1510806</v>
       </c>
@@ -18898,11 +18898,11 @@
       <c r="E605" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F605" s="1" t="s">
+      <c r="F605" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A606" s="17">
         <v>1510807</v>
       </c>
@@ -18918,11 +18918,11 @@
       <c r="E606" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F606" s="1" t="s">
+      <c r="F606" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A607" s="17">
         <v>1510808</v>
       </c>
@@ -18938,11 +18938,11 @@
       <c r="E607" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F607" s="1" t="s">
+      <c r="F607" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A608" s="17">
         <v>1510809</v>
       </c>
@@ -18958,11 +18958,11 @@
       <c r="E608" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F608" s="1" t="s">
+      <c r="F608" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A609" s="17">
         <v>1510810</v>
       </c>
@@ -18978,11 +18978,11 @@
       <c r="E609" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F609" s="1" t="s">
+      <c r="F609" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A610" s="17">
         <v>1510811</v>
       </c>
@@ -18998,11 +18998,11 @@
       <c r="E610" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F610" s="1" t="s">
+      <c r="F610" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A611" s="17">
         <v>1510812</v>
       </c>
@@ -19018,11 +19018,11 @@
       <c r="E611" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F611" s="1" t="s">
+      <c r="F611" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A612" s="17">
         <v>1510813</v>
       </c>
@@ -19038,11 +19038,11 @@
       <c r="E612" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F612" s="1" t="s">
+      <c r="F612" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A613" s="17">
         <v>1510814</v>
       </c>
@@ -19058,11 +19058,11 @@
       <c r="E613" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F613" s="1" t="s">
+      <c r="F613" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A614" s="17">
         <v>1510815</v>
       </c>
@@ -19078,11 +19078,11 @@
       <c r="E614" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F614" s="1" t="s">
+      <c r="F614" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A615" s="17">
         <v>1510913</v>
       </c>
@@ -19098,11 +19098,11 @@
       <c r="E615" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F615" s="1" t="s">
+      <c r="F615" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="231" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A616" s="17">
         <v>1510917</v>
       </c>
@@ -19118,11 +19118,11 @@
       <c r="E616" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F616" s="1" t="s">
+      <c r="F616" s="2" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="99" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A617" s="17">
         <v>1510927</v>
       </c>
@@ -19138,11 +19138,11 @@
       <c r="E617" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F617" s="1" t="s">
+      <c r="F617" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="99" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A618" s="17">
         <v>1510931</v>
       </c>
@@ -19158,11 +19158,11 @@
       <c r="E618" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F618" s="1" t="s">
+      <c r="F618" s="2" t="s">
         <v>1455</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A619" s="17">
         <v>1510934</v>
       </c>
@@ -19178,11 +19178,11 @@
       <c r="E619" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F619" s="1" t="s">
+      <c r="F619" s="2" t="s">
         <v>1471</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A620" s="17">
         <v>1510936</v>
       </c>
@@ -19198,11 +19198,11 @@
       <c r="E620" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F620" s="1" t="s">
+      <c r="F620" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A621" s="17">
         <v>2000036</v>
       </c>
@@ -19218,11 +19218,11 @@
       <c r="E621" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F621" s="1" t="s">
+      <c r="F621" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="165" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A622" s="17">
         <v>2000041</v>
       </c>
@@ -19238,11 +19238,11 @@
       <c r="E622" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F622" s="1" t="s">
+      <c r="F622" s="2" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="148.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A623" s="17">
         <v>2000207</v>
       </c>
@@ -19258,11 +19258,11 @@
       <c r="E623" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F623" s="1" t="s">
+      <c r="F623" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A624" s="17">
         <v>2000215</v>
       </c>
@@ -19278,11 +19278,11 @@
       <c r="E624" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F624" s="1" t="s">
+      <c r="F624" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A625" s="17">
         <v>2000225</v>
       </c>
@@ -19298,11 +19298,11 @@
       <c r="E625" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F625" s="1" t="s">
+      <c r="F625" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A626" s="17">
         <v>2000229</v>
       </c>
@@ -19318,11 +19318,11 @@
       <c r="E626" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F626" s="1" t="s">
+      <c r="F626" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" ht="66" x14ac:dyDescent="0.35">
       <c r="A627" s="17">
         <v>2000236</v>
       </c>
@@ -19338,11 +19338,11 @@
       <c r="E627" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F627" s="1" t="s">
+      <c r="F627" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A628" s="17">
         <v>2000312</v>
       </c>
@@ -19358,11 +19358,11 @@
       <c r="E628" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F628" s="1" t="s">
+      <c r="F628" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="66" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A629" s="17">
         <v>2000322</v>
       </c>
@@ -19378,11 +19378,11 @@
       <c r="E629" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F629" s="1" t="s">
+      <c r="F629" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A630" s="17">
         <v>2000331</v>
       </c>
@@ -19398,11 +19398,11 @@
       <c r="E630" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F630" s="1" t="s">
+      <c r="F630" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="231" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A631" s="17">
         <v>2000335</v>
       </c>
@@ -19418,11 +19418,11 @@
       <c r="E631" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F631" s="1" t="s">
+      <c r="F631" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:6" ht="214.5" x14ac:dyDescent="0.35">
       <c r="A632" s="17">
         <v>2000490</v>
       </c>
@@ -19438,11 +19438,11 @@
       <c r="E632" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F632" s="1" t="s">
+      <c r="F632" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="49.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A633" s="17">
         <v>2000806</v>
       </c>
@@ -19458,11 +19458,11 @@
       <c r="E633" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F633" s="1" t="s">
+      <c r="F633" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A634" s="17">
         <v>2001051</v>
       </c>
@@ -19478,11 +19478,11 @@
       <c r="E634" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F634" s="1" t="s">
+      <c r="F634" s="2" t="s">
         <v>1463</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A635" s="17">
         <v>2001217</v>
       </c>
@@ -19498,11 +19498,11 @@
       <c r="E635" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F635" s="1" t="s">
+      <c r="F635" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="82.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A636" s="17">
         <v>2001220</v>
       </c>
@@ -19518,11 +19518,11 @@
       <c r="E636" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F636" s="1" t="s">
+      <c r="F636" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="637" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A637" s="17">
         <v>2001221</v>
       </c>
@@ -19538,11 +19538,11 @@
       <c r="E637" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F637" s="1" t="s">
+      <c r="F637" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="99" x14ac:dyDescent="0.15">
+    <row r="638" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A638" s="17">
         <v>2001223</v>
       </c>
@@ -19558,11 +19558,11 @@
       <c r="E638" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F638" s="1" t="s">
+      <c r="F638" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="639" spans="1:6" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A639" s="17">
         <v>2001227</v>
       </c>
@@ -19578,11 +19578,11 @@
       <c r="E639" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F639" s="1" t="s">
+      <c r="F639" s="2" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="640" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A640" s="17">
         <v>2001300</v>
       </c>
@@ -19598,11 +19598,11 @@
       <c r="E640" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F640" s="1" t="s">
+      <c r="F640" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="641" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A641" s="17">
         <v>2001310</v>
       </c>
@@ -19618,11 +19618,11 @@
       <c r="E641" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F641" s="1" t="s">
+      <c r="F641" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="642" spans="1:6" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A642" s="17">
         <v>2001320</v>
       </c>
@@ -19638,11 +19638,11 @@
       <c r="E642" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F642" s="1" t="s">
+      <c r="F642" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="643" spans="1:6" ht="132" x14ac:dyDescent="0.15">
       <c r="A643" s="17">
         <v>2001344</v>
       </c>
@@ -19658,11 +19658,11 @@
       <c r="E643" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F643" s="1" t="s">
+      <c r="F643" s="2" t="s">
         <v>1460</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+    <row r="644" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A644" s="17">
         <v>2001375</v>
       </c>
@@ -19678,7 +19678,7 @@
       <c r="E644" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F644" s="1" t="s">
+      <c r="F644" s="2" t="s">
         <v>1462</v>
       </c>
     </row>
